--- a/output.xlsx
+++ b/output.xlsx
@@ -108,8 +108,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="-1685006526388291367" xfId="1" hidden="0"/>
-    <cellStyle name="-5032954561421916436" xfId="2" hidden="0"/>
+    <cellStyle name="-3593217561554289528" xfId="1" hidden="0"/>
+    <cellStyle name="-2588456016871568695" xfId="2" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>

--- a/output.xlsx
+++ b/output.xlsx
@@ -108,8 +108,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="-3593217561554289528" xfId="1" hidden="0"/>
-    <cellStyle name="-2588456016871568695" xfId="2" hidden="0"/>
+    <cellStyle name="294438408022973471" xfId="1" hidden="0"/>
+    <cellStyle name="-7404577707348508178" xfId="2" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -472,7 +472,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J59"/>
+  <dimension ref="A1:J109"/>
   <sheetViews>
     <sheetView rightToLeft="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1136,9 +1136,7 @@
       <c r="G49" s="2" t="inlineStr"/>
       <c r="H49" s="2" t="inlineStr"/>
       <c r="I49" s="2" t="inlineStr"/>
-      <c r="J49" s="2" t="n">
-        <v>120</v>
-      </c>
+      <c r="J49" s="2" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr"/>
@@ -1162,9 +1160,7 @@
       <c r="G51" s="2" t="inlineStr"/>
       <c r="H51" s="2" t="inlineStr"/>
       <c r="I51" s="2" t="inlineStr"/>
-      <c r="J51" s="2" t="n">
-        <v>120</v>
-      </c>
+      <c r="J51" s="2" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr"/>
@@ -1188,7 +1184,9 @@
       <c r="G53" s="2" t="inlineStr"/>
       <c r="H53" s="2" t="inlineStr"/>
       <c r="I53" s="2" t="inlineStr"/>
-      <c r="J53" s="2" t="inlineStr"/>
+      <c r="J53" s="2" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr"/>
@@ -1212,7 +1210,9 @@
       <c r="G55" s="2" t="inlineStr"/>
       <c r="H55" s="2" t="inlineStr"/>
       <c r="I55" s="2" t="inlineStr"/>
-      <c r="J55" s="2" t="inlineStr"/>
+      <c r="J55" s="2" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr"/>
@@ -1236,9 +1236,7 @@
       <c r="G57" s="2" t="inlineStr"/>
       <c r="H57" s="2" t="inlineStr"/>
       <c r="I57" s="2" t="inlineStr"/>
-      <c r="J57" s="2" t="n">
-        <v>120</v>
-      </c>
+      <c r="J57" s="2" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr"/>
@@ -1262,9 +1260,625 @@
       <c r="G59" s="2" t="inlineStr"/>
       <c r="H59" s="2" t="inlineStr"/>
       <c r="I59" s="2" t="inlineStr"/>
-      <c r="J59" s="2" t="n">
-        <v>120</v>
-      </c>
+      <c r="J59" s="2" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="inlineStr"/>
+      <c r="B60" s="2" t="inlineStr"/>
+      <c r="C60" s="2" t="inlineStr"/>
+      <c r="D60" s="2" t="inlineStr"/>
+      <c r="E60" s="2" t="inlineStr"/>
+      <c r="F60" s="2" t="inlineStr"/>
+      <c r="G60" s="2" t="inlineStr"/>
+      <c r="H60" s="2" t="inlineStr"/>
+      <c r="I60" s="2" t="inlineStr"/>
+      <c r="J60" s="2" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="inlineStr"/>
+      <c r="B61" s="2" t="inlineStr"/>
+      <c r="C61" s="2" t="inlineStr"/>
+      <c r="D61" s="2" t="inlineStr"/>
+      <c r="E61" s="2" t="inlineStr"/>
+      <c r="F61" s="2" t="inlineStr"/>
+      <c r="G61" s="2" t="inlineStr"/>
+      <c r="H61" s="2" t="inlineStr"/>
+      <c r="I61" s="2" t="inlineStr"/>
+      <c r="J61" s="2" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="inlineStr"/>
+      <c r="B62" s="2" t="inlineStr"/>
+      <c r="C62" s="2" t="inlineStr"/>
+      <c r="D62" s="2" t="inlineStr"/>
+      <c r="E62" s="2" t="inlineStr"/>
+      <c r="F62" s="2" t="inlineStr"/>
+      <c r="G62" s="2" t="inlineStr"/>
+      <c r="H62" s="2" t="inlineStr"/>
+      <c r="I62" s="2" t="inlineStr"/>
+      <c r="J62" s="2" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="inlineStr"/>
+      <c r="B63" s="2" t="inlineStr"/>
+      <c r="C63" s="2" t="inlineStr"/>
+      <c r="D63" s="2" t="inlineStr"/>
+      <c r="E63" s="2" t="inlineStr"/>
+      <c r="F63" s="2" t="inlineStr"/>
+      <c r="G63" s="2" t="inlineStr"/>
+      <c r="H63" s="2" t="inlineStr"/>
+      <c r="I63" s="2" t="inlineStr"/>
+      <c r="J63" s="2" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="inlineStr"/>
+      <c r="B64" s="2" t="inlineStr"/>
+      <c r="C64" s="2" t="inlineStr"/>
+      <c r="D64" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="E64" s="2" t="inlineStr"/>
+      <c r="F64" s="2" t="inlineStr"/>
+      <c r="G64" s="2" t="inlineStr"/>
+      <c r="H64" s="2" t="inlineStr"/>
+      <c r="I64" s="2" t="inlineStr"/>
+      <c r="J64" s="2" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="inlineStr"/>
+      <c r="B65" s="2" t="inlineStr"/>
+      <c r="C65" s="2" t="inlineStr"/>
+      <c r="D65" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="E65" s="2" t="inlineStr"/>
+      <c r="F65" s="2" t="inlineStr"/>
+      <c r="G65" s="2" t="inlineStr"/>
+      <c r="H65" s="2" t="inlineStr"/>
+      <c r="I65" s="2" t="inlineStr"/>
+      <c r="J65" s="2" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="inlineStr"/>
+      <c r="B66" s="2" t="inlineStr"/>
+      <c r="C66" s="2" t="inlineStr"/>
+      <c r="D66" s="2" t="inlineStr"/>
+      <c r="E66" s="2" t="inlineStr"/>
+      <c r="F66" s="2" t="inlineStr"/>
+      <c r="G66" s="2" t="inlineStr"/>
+      <c r="H66" s="2" t="inlineStr"/>
+      <c r="I66" s="2" t="inlineStr"/>
+      <c r="J66" s="2" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="inlineStr"/>
+      <c r="B67" s="2" t="inlineStr"/>
+      <c r="C67" s="2" t="inlineStr"/>
+      <c r="D67" s="2" t="inlineStr"/>
+      <c r="E67" s="2" t="inlineStr"/>
+      <c r="F67" s="2" t="inlineStr"/>
+      <c r="G67" s="2" t="inlineStr"/>
+      <c r="H67" s="2" t="inlineStr"/>
+      <c r="I67" s="2" t="inlineStr"/>
+      <c r="J67" s="2" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="inlineStr"/>
+      <c r="B68" s="2" t="inlineStr"/>
+      <c r="C68" s="2" t="inlineStr"/>
+      <c r="D68" s="2" t="inlineStr"/>
+      <c r="E68" s="2" t="inlineStr"/>
+      <c r="F68" s="2" t="inlineStr"/>
+      <c r="G68" s="2" t="inlineStr"/>
+      <c r="H68" s="2" t="inlineStr"/>
+      <c r="I68" s="2" t="inlineStr"/>
+      <c r="J68" s="2" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="inlineStr"/>
+      <c r="B69" s="2" t="inlineStr"/>
+      <c r="C69" s="2" t="inlineStr"/>
+      <c r="D69" s="2" t="inlineStr"/>
+      <c r="E69" s="2" t="inlineStr"/>
+      <c r="F69" s="2" t="inlineStr"/>
+      <c r="G69" s="2" t="inlineStr"/>
+      <c r="H69" s="2" t="inlineStr"/>
+      <c r="I69" s="2" t="inlineStr"/>
+      <c r="J69" s="2" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="inlineStr"/>
+      <c r="B70" s="2" t="inlineStr"/>
+      <c r="C70" s="2" t="inlineStr"/>
+      <c r="D70" s="2" t="inlineStr"/>
+      <c r="E70" s="2" t="inlineStr"/>
+      <c r="F70" s="2" t="inlineStr"/>
+      <c r="G70" s="2" t="inlineStr"/>
+      <c r="H70" s="2" t="inlineStr"/>
+      <c r="I70" s="2" t="inlineStr"/>
+      <c r="J70" s="2" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="inlineStr"/>
+      <c r="B71" s="2" t="inlineStr"/>
+      <c r="C71" s="2" t="inlineStr"/>
+      <c r="D71" s="2" t="inlineStr"/>
+      <c r="E71" s="2" t="inlineStr"/>
+      <c r="F71" s="2" t="inlineStr"/>
+      <c r="G71" s="2" t="inlineStr"/>
+      <c r="H71" s="2" t="inlineStr"/>
+      <c r="I71" s="2" t="inlineStr"/>
+      <c r="J71" s="2" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="inlineStr"/>
+      <c r="B72" s="2" t="inlineStr"/>
+      <c r="C72" s="2" t="inlineStr"/>
+      <c r="D72" s="2" t="inlineStr"/>
+      <c r="E72" s="2" t="inlineStr"/>
+      <c r="F72" s="2" t="inlineStr"/>
+      <c r="G72" s="2" t="inlineStr"/>
+      <c r="H72" s="2" t="inlineStr"/>
+      <c r="I72" s="2" t="inlineStr"/>
+      <c r="J72" s="2" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="inlineStr"/>
+      <c r="B73" s="2" t="inlineStr"/>
+      <c r="C73" s="2" t="inlineStr"/>
+      <c r="D73" s="2" t="inlineStr"/>
+      <c r="E73" s="2" t="inlineStr"/>
+      <c r="F73" s="2" t="inlineStr"/>
+      <c r="G73" s="2" t="inlineStr"/>
+      <c r="H73" s="2" t="inlineStr"/>
+      <c r="I73" s="2" t="inlineStr"/>
+      <c r="J73" s="2" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="inlineStr"/>
+      <c r="B74" s="2" t="inlineStr"/>
+      <c r="C74" s="2" t="inlineStr"/>
+      <c r="D74" s="2" t="inlineStr"/>
+      <c r="E74" s="2" t="inlineStr"/>
+      <c r="F74" s="2" t="inlineStr"/>
+      <c r="G74" s="2" t="inlineStr"/>
+      <c r="H74" s="2" t="inlineStr"/>
+      <c r="I74" s="2" t="inlineStr"/>
+      <c r="J74" s="2" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="inlineStr"/>
+      <c r="B75" s="2" t="inlineStr"/>
+      <c r="C75" s="2" t="inlineStr"/>
+      <c r="D75" s="2" t="inlineStr"/>
+      <c r="E75" s="2" t="inlineStr"/>
+      <c r="F75" s="2" t="inlineStr"/>
+      <c r="G75" s="2" t="inlineStr"/>
+      <c r="H75" s="2" t="inlineStr"/>
+      <c r="I75" s="2" t="inlineStr"/>
+      <c r="J75" s="2" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="inlineStr"/>
+      <c r="B76" s="2" t="inlineStr"/>
+      <c r="C76" s="2" t="inlineStr"/>
+      <c r="D76" s="2" t="inlineStr"/>
+      <c r="E76" s="2" t="inlineStr"/>
+      <c r="F76" s="2" t="inlineStr"/>
+      <c r="G76" s="2" t="inlineStr"/>
+      <c r="H76" s="2" t="inlineStr"/>
+      <c r="I76" s="2" t="inlineStr"/>
+      <c r="J76" s="2" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="inlineStr"/>
+      <c r="B77" s="2" t="inlineStr"/>
+      <c r="C77" s="2" t="inlineStr"/>
+      <c r="D77" s="2" t="inlineStr"/>
+      <c r="E77" s="2" t="inlineStr"/>
+      <c r="F77" s="2" t="inlineStr"/>
+      <c r="G77" s="2" t="inlineStr"/>
+      <c r="H77" s="2" t="inlineStr"/>
+      <c r="I77" s="2" t="inlineStr"/>
+      <c r="J77" s="2" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="inlineStr"/>
+      <c r="B78" s="2" t="inlineStr"/>
+      <c r="C78" s="2" t="inlineStr"/>
+      <c r="D78" s="2" t="inlineStr"/>
+      <c r="E78" s="2" t="inlineStr"/>
+      <c r="F78" s="2" t="inlineStr"/>
+      <c r="G78" s="2" t="inlineStr"/>
+      <c r="H78" s="2" t="inlineStr"/>
+      <c r="I78" s="2" t="inlineStr"/>
+      <c r="J78" s="2" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="inlineStr"/>
+      <c r="B79" s="2" t="inlineStr"/>
+      <c r="C79" s="2" t="inlineStr"/>
+      <c r="D79" s="2" t="inlineStr"/>
+      <c r="E79" s="2" t="inlineStr"/>
+      <c r="F79" s="2" t="inlineStr"/>
+      <c r="G79" s="2" t="inlineStr"/>
+      <c r="H79" s="2" t="inlineStr"/>
+      <c r="I79" s="2" t="inlineStr"/>
+      <c r="J79" s="2" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="inlineStr"/>
+      <c r="B80" s="2" t="inlineStr"/>
+      <c r="C80" s="2" t="inlineStr"/>
+      <c r="D80" s="2" t="inlineStr"/>
+      <c r="E80" s="2" t="inlineStr"/>
+      <c r="F80" s="2" t="inlineStr"/>
+      <c r="G80" s="2" t="inlineStr"/>
+      <c r="H80" s="2" t="inlineStr"/>
+      <c r="I80" s="2" t="inlineStr"/>
+      <c r="J80" s="2" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="inlineStr"/>
+      <c r="B81" s="2" t="inlineStr"/>
+      <c r="C81" s="2" t="inlineStr"/>
+      <c r="D81" s="2" t="inlineStr"/>
+      <c r="E81" s="2" t="inlineStr"/>
+      <c r="F81" s="2" t="inlineStr"/>
+      <c r="G81" s="2" t="inlineStr"/>
+      <c r="H81" s="2" t="inlineStr"/>
+      <c r="I81" s="2" t="inlineStr"/>
+      <c r="J81" s="2" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="inlineStr"/>
+      <c r="B82" s="2" t="inlineStr"/>
+      <c r="C82" s="2" t="inlineStr"/>
+      <c r="D82" s="2" t="inlineStr"/>
+      <c r="E82" s="2" t="inlineStr"/>
+      <c r="F82" s="2" t="inlineStr"/>
+      <c r="G82" s="2" t="inlineStr"/>
+      <c r="H82" s="2" t="inlineStr"/>
+      <c r="I82" s="2" t="inlineStr"/>
+      <c r="J82" s="2" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="inlineStr"/>
+      <c r="B83" s="2" t="inlineStr"/>
+      <c r="C83" s="2" t="inlineStr"/>
+      <c r="D83" s="2" t="inlineStr"/>
+      <c r="E83" s="2" t="inlineStr"/>
+      <c r="F83" s="2" t="inlineStr"/>
+      <c r="G83" s="2" t="inlineStr"/>
+      <c r="H83" s="2" t="inlineStr"/>
+      <c r="I83" s="2" t="inlineStr"/>
+      <c r="J83" s="2" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="inlineStr"/>
+      <c r="B84" s="2" t="inlineStr"/>
+      <c r="C84" s="2" t="inlineStr"/>
+      <c r="D84" s="2" t="inlineStr"/>
+      <c r="E84" s="2" t="inlineStr"/>
+      <c r="F84" s="2" t="inlineStr"/>
+      <c r="G84" s="2" t="inlineStr"/>
+      <c r="H84" s="2" t="inlineStr"/>
+      <c r="I84" s="2" t="inlineStr"/>
+      <c r="J84" s="2" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="inlineStr"/>
+      <c r="B85" s="2" t="inlineStr"/>
+      <c r="C85" s="2" t="inlineStr"/>
+      <c r="D85" s="2" t="inlineStr"/>
+      <c r="E85" s="2" t="inlineStr"/>
+      <c r="F85" s="2" t="inlineStr"/>
+      <c r="G85" s="2" t="inlineStr"/>
+      <c r="H85" s="2" t="inlineStr"/>
+      <c r="I85" s="2" t="inlineStr"/>
+      <c r="J85" s="2" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="inlineStr"/>
+      <c r="B86" s="2" t="inlineStr"/>
+      <c r="C86" s="2" t="inlineStr"/>
+      <c r="D86" s="2" t="inlineStr"/>
+      <c r="E86" s="2" t="inlineStr"/>
+      <c r="F86" s="2" t="inlineStr"/>
+      <c r="G86" s="2" t="inlineStr"/>
+      <c r="H86" s="2" t="inlineStr"/>
+      <c r="I86" s="2" t="inlineStr"/>
+      <c r="J86" s="2" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="inlineStr"/>
+      <c r="B87" s="2" t="inlineStr"/>
+      <c r="C87" s="2" t="inlineStr"/>
+      <c r="D87" s="2" t="inlineStr"/>
+      <c r="E87" s="2" t="inlineStr"/>
+      <c r="F87" s="2" t="inlineStr"/>
+      <c r="G87" s="2" t="inlineStr"/>
+      <c r="H87" s="2" t="inlineStr"/>
+      <c r="I87" s="2" t="inlineStr"/>
+      <c r="J87" s="2" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="inlineStr"/>
+      <c r="B88" s="2" t="inlineStr"/>
+      <c r="C88" s="2" t="inlineStr"/>
+      <c r="D88" s="2" t="inlineStr"/>
+      <c r="E88" s="2" t="inlineStr"/>
+      <c r="F88" s="2" t="inlineStr"/>
+      <c r="G88" s="2" t="inlineStr"/>
+      <c r="H88" s="2" t="inlineStr"/>
+      <c r="I88" s="2" t="inlineStr"/>
+      <c r="J88" s="2" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="inlineStr"/>
+      <c r="B89" s="2" t="inlineStr"/>
+      <c r="C89" s="2" t="inlineStr"/>
+      <c r="D89" s="2" t="inlineStr"/>
+      <c r="E89" s="2" t="inlineStr"/>
+      <c r="F89" s="2" t="inlineStr"/>
+      <c r="G89" s="2" t="inlineStr"/>
+      <c r="H89" s="2" t="inlineStr"/>
+      <c r="I89" s="2" t="inlineStr"/>
+      <c r="J89" s="2" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="inlineStr"/>
+      <c r="B90" s="2" t="inlineStr"/>
+      <c r="C90" s="2" t="inlineStr"/>
+      <c r="D90" s="2" t="inlineStr"/>
+      <c r="E90" s="2" t="inlineStr"/>
+      <c r="F90" s="2" t="inlineStr"/>
+      <c r="G90" s="2" t="inlineStr"/>
+      <c r="H90" s="2" t="inlineStr"/>
+      <c r="I90" s="2" t="inlineStr"/>
+      <c r="J90" s="2" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="inlineStr"/>
+      <c r="B91" s="2" t="inlineStr"/>
+      <c r="C91" s="2" t="inlineStr"/>
+      <c r="D91" s="2" t="inlineStr"/>
+      <c r="E91" s="2" t="inlineStr"/>
+      <c r="F91" s="2" t="inlineStr"/>
+      <c r="G91" s="2" t="inlineStr"/>
+      <c r="H91" s="2" t="inlineStr"/>
+      <c r="I91" s="2" t="inlineStr"/>
+      <c r="J91" s="2" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="inlineStr"/>
+      <c r="B92" s="2" t="inlineStr"/>
+      <c r="C92" s="2" t="inlineStr"/>
+      <c r="D92" s="2" t="inlineStr"/>
+      <c r="E92" s="2" t="inlineStr"/>
+      <c r="F92" s="2" t="inlineStr"/>
+      <c r="G92" s="2" t="inlineStr"/>
+      <c r="H92" s="2" t="inlineStr"/>
+      <c r="I92" s="2" t="inlineStr"/>
+      <c r="J92" s="2" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="inlineStr"/>
+      <c r="B93" s="2" t="inlineStr"/>
+      <c r="C93" s="2" t="inlineStr"/>
+      <c r="D93" s="2" t="inlineStr"/>
+      <c r="E93" s="2" t="inlineStr"/>
+      <c r="F93" s="2" t="inlineStr"/>
+      <c r="G93" s="2" t="inlineStr"/>
+      <c r="H93" s="2" t="inlineStr"/>
+      <c r="I93" s="2" t="inlineStr"/>
+      <c r="J93" s="2" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="inlineStr"/>
+      <c r="B94" s="2" t="inlineStr"/>
+      <c r="C94" s="2" t="inlineStr"/>
+      <c r="D94" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="E94" s="2" t="inlineStr"/>
+      <c r="F94" s="2" t="inlineStr"/>
+      <c r="G94" s="2" t="inlineStr"/>
+      <c r="H94" s="2" t="inlineStr"/>
+      <c r="I94" s="2" t="inlineStr"/>
+      <c r="J94" s="2" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="inlineStr"/>
+      <c r="B95" s="2" t="inlineStr"/>
+      <c r="C95" s="2" t="inlineStr"/>
+      <c r="D95" s="2" t="inlineStr"/>
+      <c r="E95" s="2" t="inlineStr"/>
+      <c r="F95" s="2" t="inlineStr"/>
+      <c r="G95" s="2" t="inlineStr"/>
+      <c r="H95" s="2" t="inlineStr"/>
+      <c r="I95" s="2" t="inlineStr"/>
+      <c r="J95" s="2" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="inlineStr"/>
+      <c r="B96" s="2" t="inlineStr"/>
+      <c r="C96" s="2" t="inlineStr"/>
+      <c r="D96" s="2" t="inlineStr"/>
+      <c r="E96" s="2" t="inlineStr"/>
+      <c r="F96" s="2" t="inlineStr"/>
+      <c r="G96" s="2" t="inlineStr"/>
+      <c r="H96" s="2" t="inlineStr"/>
+      <c r="I96" s="2" t="inlineStr"/>
+      <c r="J96" s="2" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="inlineStr"/>
+      <c r="B97" s="2" t="inlineStr"/>
+      <c r="C97" s="2" t="inlineStr"/>
+      <c r="D97" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="E97" s="2" t="inlineStr"/>
+      <c r="F97" s="2" t="inlineStr"/>
+      <c r="G97" s="2" t="inlineStr"/>
+      <c r="H97" s="2" t="inlineStr"/>
+      <c r="I97" s="2" t="inlineStr"/>
+      <c r="J97" s="2" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="inlineStr"/>
+      <c r="B98" s="2" t="inlineStr"/>
+      <c r="C98" s="2" t="inlineStr"/>
+      <c r="D98" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="E98" s="2" t="inlineStr"/>
+      <c r="F98" s="2" t="inlineStr"/>
+      <c r="G98" s="2" t="inlineStr"/>
+      <c r="H98" s="2" t="inlineStr"/>
+      <c r="I98" s="2" t="inlineStr"/>
+      <c r="J98" s="2" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="inlineStr"/>
+      <c r="B99" s="2" t="inlineStr"/>
+      <c r="C99" s="2" t="inlineStr"/>
+      <c r="D99" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="E99" s="2" t="inlineStr"/>
+      <c r="F99" s="2" t="inlineStr"/>
+      <c r="G99" s="2" t="inlineStr"/>
+      <c r="H99" s="2" t="inlineStr"/>
+      <c r="I99" s="2" t="inlineStr"/>
+      <c r="J99" s="2" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="inlineStr"/>
+      <c r="B100" s="2" t="inlineStr"/>
+      <c r="C100" s="2" t="inlineStr"/>
+      <c r="D100" s="2" t="inlineStr"/>
+      <c r="E100" s="2" t="inlineStr"/>
+      <c r="F100" s="2" t="inlineStr"/>
+      <c r="G100" s="2" t="inlineStr"/>
+      <c r="H100" s="2" t="inlineStr"/>
+      <c r="I100" s="2" t="inlineStr"/>
+      <c r="J100" s="2" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="inlineStr"/>
+      <c r="B101" s="2" t="inlineStr"/>
+      <c r="C101" s="2" t="inlineStr"/>
+      <c r="D101" s="2" t="inlineStr"/>
+      <c r="E101" s="2" t="inlineStr"/>
+      <c r="F101" s="2" t="inlineStr"/>
+      <c r="G101" s="2" t="inlineStr"/>
+      <c r="H101" s="2" t="inlineStr"/>
+      <c r="I101" s="2" t="inlineStr"/>
+      <c r="J101" s="2" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="inlineStr"/>
+      <c r="B102" s="2" t="inlineStr"/>
+      <c r="C102" s="2" t="inlineStr"/>
+      <c r="D102" s="2" t="inlineStr"/>
+      <c r="E102" s="2" t="inlineStr"/>
+      <c r="F102" s="2" t="inlineStr"/>
+      <c r="G102" s="2" t="inlineStr"/>
+      <c r="H102" s="2" t="inlineStr"/>
+      <c r="I102" s="2" t="inlineStr"/>
+      <c r="J102" s="2" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="inlineStr"/>
+      <c r="B103" s="2" t="inlineStr"/>
+      <c r="C103" s="2" t="inlineStr"/>
+      <c r="D103" s="2" t="inlineStr"/>
+      <c r="E103" s="2" t="inlineStr"/>
+      <c r="F103" s="2" t="inlineStr"/>
+      <c r="G103" s="2" t="inlineStr"/>
+      <c r="H103" s="2" t="inlineStr"/>
+      <c r="I103" s="2" t="inlineStr"/>
+      <c r="J103" s="2" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="inlineStr"/>
+      <c r="B104" s="2" t="inlineStr"/>
+      <c r="C104" s="2" t="inlineStr"/>
+      <c r="D104" s="2" t="inlineStr"/>
+      <c r="E104" s="2" t="inlineStr"/>
+      <c r="F104" s="2" t="inlineStr"/>
+      <c r="G104" s="2" t="inlineStr"/>
+      <c r="H104" s="2" t="inlineStr"/>
+      <c r="I104" s="2" t="inlineStr"/>
+      <c r="J104" s="2" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="inlineStr"/>
+      <c r="B105" s="2" t="inlineStr"/>
+      <c r="C105" s="2" t="inlineStr"/>
+      <c r="D105" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="E105" s="2" t="inlineStr"/>
+      <c r="F105" s="2" t="inlineStr"/>
+      <c r="G105" s="2" t="inlineStr"/>
+      <c r="H105" s="2" t="inlineStr"/>
+      <c r="I105" s="2" t="inlineStr"/>
+      <c r="J105" s="2" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="inlineStr"/>
+      <c r="B106" s="2" t="inlineStr"/>
+      <c r="C106" s="2" t="inlineStr"/>
+      <c r="D106" s="2" t="inlineStr"/>
+      <c r="E106" s="2" t="inlineStr"/>
+      <c r="F106" s="2" t="inlineStr"/>
+      <c r="G106" s="2" t="inlineStr"/>
+      <c r="H106" s="2" t="inlineStr"/>
+      <c r="I106" s="2" t="inlineStr"/>
+      <c r="J106" s="2" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="inlineStr"/>
+      <c r="B107" s="2" t="inlineStr"/>
+      <c r="C107" s="2" t="inlineStr"/>
+      <c r="D107" s="2" t="inlineStr"/>
+      <c r="E107" s="2" t="inlineStr"/>
+      <c r="F107" s="2" t="inlineStr"/>
+      <c r="G107" s="2" t="inlineStr"/>
+      <c r="H107" s="2" t="inlineStr"/>
+      <c r="I107" s="2" t="inlineStr"/>
+      <c r="J107" s="2" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="inlineStr"/>
+      <c r="B108" s="2" t="inlineStr"/>
+      <c r="C108" s="2" t="inlineStr"/>
+      <c r="D108" s="2" t="inlineStr"/>
+      <c r="E108" s="2" t="inlineStr"/>
+      <c r="F108" s="2" t="inlineStr"/>
+      <c r="G108" s="2" t="inlineStr"/>
+      <c r="H108" s="2" t="inlineStr"/>
+      <c r="I108" s="2" t="inlineStr"/>
+      <c r="J108" s="2" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="inlineStr"/>
+      <c r="B109" s="2" t="inlineStr"/>
+      <c r="C109" s="2" t="inlineStr"/>
+      <c r="D109" s="2" t="inlineStr"/>
+      <c r="E109" s="2" t="inlineStr"/>
+      <c r="F109" s="2" t="inlineStr"/>
+      <c r="G109" s="2" t="inlineStr"/>
+      <c r="H109" s="2" t="inlineStr"/>
+      <c r="I109" s="2" t="inlineStr"/>
+      <c r="J109" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -108,8 +108,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="294438408022973471" xfId="1" hidden="0"/>
-    <cellStyle name="-7404577707348508178" xfId="2" hidden="0"/>
+    <cellStyle name="-1921328788621523271" xfId="1" hidden="0"/>
+    <cellStyle name="-9166051247075783608" xfId="2" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>

--- a/output.xlsx
+++ b/output.xlsx
@@ -108,8 +108,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="-1921328788621523271" xfId="1" hidden="0"/>
-    <cellStyle name="-9166051247075783608" xfId="2" hidden="0"/>
+    <cellStyle name="-8019834647127714573" xfId="1" hidden="0"/>
+    <cellStyle name="7952858154778646726" xfId="2" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>

--- a/output.xlsx
+++ b/output.xlsx
@@ -108,8 +108,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="-8019834647127714573" xfId="1" hidden="0"/>
-    <cellStyle name="7952858154778646726" xfId="2" hidden="0"/>
+    <cellStyle name="6926860302631441308" xfId="1" hidden="0"/>
+    <cellStyle name="2566231091250049833" xfId="2" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>

--- a/output.xlsx
+++ b/output.xlsx
@@ -108,8 +108,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="6926860302631441308" xfId="1" hidden="0"/>
-    <cellStyle name="2566231091250049833" xfId="2" hidden="0"/>
+    <cellStyle name="385303391958451849" xfId="1" hidden="0"/>
+    <cellStyle name="4994733376973415200" xfId="2" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>

--- a/output.xlsx
+++ b/output.xlsx
@@ -108,8 +108,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="385303391958451849" xfId="1" hidden="0"/>
-    <cellStyle name="4994733376973415200" xfId="2" hidden="0"/>
+    <cellStyle name="8824746893742480365" xfId="1" hidden="0"/>
+    <cellStyle name="-1094431971846363596" xfId="2" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>

--- a/output.xlsx
+++ b/output.xlsx
@@ -108,8 +108,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="8824746893742480365" xfId="1" hidden="0"/>
-    <cellStyle name="-1094431971846363596" xfId="2" hidden="0"/>
+    <cellStyle name="3500488539710092671" xfId="1" hidden="0"/>
+    <cellStyle name="8829697651784778690" xfId="2" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -472,7 +472,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J109"/>
+  <dimension ref="A1:K109"/>
   <sheetViews>
     <sheetView rightToLeft="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,30 +503,35 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Digital Sequence</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Sequence</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>F.No</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Sub-feature</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>AN-Data dictionary</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Clubbing</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>A-Sentence</t>
         </is>
@@ -543,6 +548,7 @@
       <c r="H2" s="2" t="inlineStr"/>
       <c r="I2" s="2" t="inlineStr"/>
       <c r="J2" s="2" t="inlineStr"/>
+      <c r="K2" s="2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr"/>
@@ -555,6 +561,7 @@
       <c r="H3" s="2" t="inlineStr"/>
       <c r="I3" s="2" t="inlineStr"/>
       <c r="J3" s="2" t="inlineStr"/>
+      <c r="K3" s="2" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr"/>
@@ -569,6 +576,7 @@
       <c r="H4" s="2" t="inlineStr"/>
       <c r="I4" s="2" t="inlineStr"/>
       <c r="J4" s="2" t="inlineStr"/>
+      <c r="K4" s="2" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr"/>
@@ -583,6 +591,7 @@
       <c r="H5" s="2" t="inlineStr"/>
       <c r="I5" s="2" t="inlineStr"/>
       <c r="J5" s="2" t="inlineStr"/>
+      <c r="K5" s="2" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr"/>
@@ -597,6 +606,7 @@
       <c r="H6" s="2" t="inlineStr"/>
       <c r="I6" s="2" t="inlineStr"/>
       <c r="J6" s="2" t="inlineStr"/>
+      <c r="K6" s="2" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr"/>
@@ -611,6 +621,7 @@
       <c r="H7" s="2" t="inlineStr"/>
       <c r="I7" s="2" t="inlineStr"/>
       <c r="J7" s="2" t="inlineStr"/>
+      <c r="K7" s="2" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr"/>
@@ -625,6 +636,7 @@
       <c r="H8" s="2" t="inlineStr"/>
       <c r="I8" s="2" t="inlineStr"/>
       <c r="J8" s="2" t="inlineStr"/>
+      <c r="K8" s="2" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr"/>
@@ -639,6 +651,7 @@
       <c r="H9" s="2" t="inlineStr"/>
       <c r="I9" s="2" t="inlineStr"/>
       <c r="J9" s="2" t="inlineStr"/>
+      <c r="K9" s="2" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr"/>
@@ -651,6 +664,7 @@
       <c r="H10" s="2" t="inlineStr"/>
       <c r="I10" s="2" t="inlineStr"/>
       <c r="J10" s="2" t="inlineStr"/>
+      <c r="K10" s="2" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr"/>
@@ -663,6 +677,7 @@
       <c r="H11" s="2" t="inlineStr"/>
       <c r="I11" s="2" t="inlineStr"/>
       <c r="J11" s="2" t="inlineStr"/>
+      <c r="K11" s="2" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr"/>
@@ -675,6 +690,7 @@
       <c r="H12" s="2" t="inlineStr"/>
       <c r="I12" s="2" t="inlineStr"/>
       <c r="J12" s="2" t="inlineStr"/>
+      <c r="K12" s="2" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr"/>
@@ -687,6 +703,7 @@
       <c r="H13" s="2" t="inlineStr"/>
       <c r="I13" s="2" t="inlineStr"/>
       <c r="J13" s="2" t="inlineStr"/>
+      <c r="K13" s="2" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr"/>
@@ -699,6 +716,7 @@
       <c r="H14" s="2" t="inlineStr"/>
       <c r="I14" s="2" t="inlineStr"/>
       <c r="J14" s="2" t="inlineStr"/>
+      <c r="K14" s="2" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr"/>
@@ -711,6 +729,7 @@
       <c r="H15" s="2" t="inlineStr"/>
       <c r="I15" s="2" t="inlineStr"/>
       <c r="J15" s="2" t="inlineStr"/>
+      <c r="K15" s="2" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr"/>
@@ -723,6 +742,7 @@
       <c r="H16" s="2" t="inlineStr"/>
       <c r="I16" s="2" t="inlineStr"/>
       <c r="J16" s="2" t="inlineStr"/>
+      <c r="K16" s="2" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr"/>
@@ -737,6 +757,7 @@
       <c r="H17" s="2" t="inlineStr"/>
       <c r="I17" s="2" t="inlineStr"/>
       <c r="J17" s="2" t="inlineStr"/>
+      <c r="K17" s="2" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr"/>
@@ -751,6 +772,7 @@
       <c r="H18" s="2" t="inlineStr"/>
       <c r="I18" s="2" t="inlineStr"/>
       <c r="J18" s="2" t="inlineStr"/>
+      <c r="K18" s="2" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr"/>
@@ -765,6 +787,7 @@
       <c r="H19" s="2" t="inlineStr"/>
       <c r="I19" s="2" t="inlineStr"/>
       <c r="J19" s="2" t="inlineStr"/>
+      <c r="K19" s="2" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr"/>
@@ -777,6 +800,7 @@
       <c r="H20" s="2" t="inlineStr"/>
       <c r="I20" s="2" t="inlineStr"/>
       <c r="J20" s="2" t="inlineStr"/>
+      <c r="K20" s="2" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr"/>
@@ -791,6 +815,7 @@
       <c r="H21" s="2" t="inlineStr"/>
       <c r="I21" s="2" t="inlineStr"/>
       <c r="J21" s="2" t="inlineStr"/>
+      <c r="K21" s="2" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr"/>
@@ -805,6 +830,7 @@
       <c r="H22" s="2" t="inlineStr"/>
       <c r="I22" s="2" t="inlineStr"/>
       <c r="J22" s="2" t="inlineStr"/>
+      <c r="K22" s="2" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr"/>
@@ -817,6 +843,7 @@
       <c r="H23" s="2" t="inlineStr"/>
       <c r="I23" s="2" t="inlineStr"/>
       <c r="J23" s="2" t="inlineStr"/>
+      <c r="K23" s="2" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr"/>
@@ -829,6 +856,7 @@
       <c r="H24" s="2" t="inlineStr"/>
       <c r="I24" s="2" t="inlineStr"/>
       <c r="J24" s="2" t="inlineStr"/>
+      <c r="K24" s="2" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr"/>
@@ -841,6 +869,7 @@
       <c r="H25" s="2" t="inlineStr"/>
       <c r="I25" s="2" t="inlineStr"/>
       <c r="J25" s="2" t="inlineStr"/>
+      <c r="K25" s="2" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr"/>
@@ -853,6 +882,7 @@
       <c r="H26" s="2" t="inlineStr"/>
       <c r="I26" s="2" t="inlineStr"/>
       <c r="J26" s="2" t="inlineStr"/>
+      <c r="K26" s="2" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr"/>
@@ -865,6 +895,7 @@
       <c r="H27" s="2" t="inlineStr"/>
       <c r="I27" s="2" t="inlineStr"/>
       <c r="J27" s="2" t="inlineStr"/>
+      <c r="K27" s="2" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr"/>
@@ -877,6 +908,7 @@
       <c r="H28" s="2" t="inlineStr"/>
       <c r="I28" s="2" t="inlineStr"/>
       <c r="J28" s="2" t="inlineStr"/>
+      <c r="K28" s="2" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr"/>
@@ -889,6 +921,7 @@
       <c r="H29" s="2" t="inlineStr"/>
       <c r="I29" s="2" t="inlineStr"/>
       <c r="J29" s="2" t="inlineStr"/>
+      <c r="K29" s="2" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr"/>
@@ -901,6 +934,7 @@
       <c r="H30" s="2" t="inlineStr"/>
       <c r="I30" s="2" t="inlineStr"/>
       <c r="J30" s="2" t="inlineStr"/>
+      <c r="K30" s="2" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr"/>
@@ -913,6 +947,7 @@
       <c r="H31" s="2" t="inlineStr"/>
       <c r="I31" s="2" t="inlineStr"/>
       <c r="J31" s="2" t="inlineStr"/>
+      <c r="K31" s="2" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr"/>
@@ -925,6 +960,7 @@
       <c r="H32" s="2" t="inlineStr"/>
       <c r="I32" s="2" t="inlineStr"/>
       <c r="J32" s="2" t="inlineStr"/>
+      <c r="K32" s="2" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr"/>
@@ -937,6 +973,7 @@
       <c r="H33" s="2" t="inlineStr"/>
       <c r="I33" s="2" t="inlineStr"/>
       <c r="J33" s="2" t="inlineStr"/>
+      <c r="K33" s="2" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr"/>
@@ -949,6 +986,7 @@
       <c r="H34" s="2" t="inlineStr"/>
       <c r="I34" s="2" t="inlineStr"/>
       <c r="J34" s="2" t="inlineStr"/>
+      <c r="K34" s="2" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr"/>
@@ -961,6 +999,7 @@
       <c r="H35" s="2" t="inlineStr"/>
       <c r="I35" s="2" t="inlineStr"/>
       <c r="J35" s="2" t="inlineStr"/>
+      <c r="K35" s="2" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr"/>
@@ -975,6 +1014,7 @@
       <c r="H36" s="2" t="inlineStr"/>
       <c r="I36" s="2" t="inlineStr"/>
       <c r="J36" s="2" t="inlineStr"/>
+      <c r="K36" s="2" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr"/>
@@ -989,6 +1029,7 @@
       <c r="H37" s="2" t="inlineStr"/>
       <c r="I37" s="2" t="inlineStr"/>
       <c r="J37" s="2" t="inlineStr"/>
+      <c r="K37" s="2" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr"/>
@@ -1002,7 +1043,8 @@
       <c r="G38" s="2" t="inlineStr"/>
       <c r="H38" s="2" t="inlineStr"/>
       <c r="I38" s="2" t="inlineStr"/>
-      <c r="J38" s="2" t="n">
+      <c r="J38" s="2" t="inlineStr"/>
+      <c r="K38" s="2" t="n">
         <v>120</v>
       </c>
     </row>
@@ -1017,6 +1059,7 @@
       <c r="H39" s="2" t="inlineStr"/>
       <c r="I39" s="2" t="inlineStr"/>
       <c r="J39" s="2" t="inlineStr"/>
+      <c r="K39" s="2" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr"/>
@@ -1029,6 +1072,7 @@
       <c r="H40" s="2" t="inlineStr"/>
       <c r="I40" s="2" t="inlineStr"/>
       <c r="J40" s="2" t="inlineStr"/>
+      <c r="K40" s="2" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr"/>
@@ -1041,6 +1085,7 @@
       <c r="H41" s="2" t="inlineStr"/>
       <c r="I41" s="2" t="inlineStr"/>
       <c r="J41" s="2" t="inlineStr"/>
+      <c r="K41" s="2" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr"/>
@@ -1053,6 +1098,7 @@
       <c r="H42" s="2" t="inlineStr"/>
       <c r="I42" s="2" t="inlineStr"/>
       <c r="J42" s="2" t="inlineStr"/>
+      <c r="K42" s="2" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr"/>
@@ -1065,6 +1111,7 @@
       <c r="H43" s="2" t="inlineStr"/>
       <c r="I43" s="2" t="inlineStr"/>
       <c r="J43" s="2" t="inlineStr"/>
+      <c r="K43" s="2" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr"/>
@@ -1077,6 +1124,7 @@
       <c r="H44" s="2" t="inlineStr"/>
       <c r="I44" s="2" t="inlineStr"/>
       <c r="J44" s="2" t="inlineStr"/>
+      <c r="K44" s="2" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr"/>
@@ -1089,6 +1137,7 @@
       <c r="H45" s="2" t="inlineStr"/>
       <c r="I45" s="2" t="inlineStr"/>
       <c r="J45" s="2" t="inlineStr"/>
+      <c r="K45" s="2" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr"/>
@@ -1101,6 +1150,7 @@
       <c r="H46" s="2" t="inlineStr"/>
       <c r="I46" s="2" t="inlineStr"/>
       <c r="J46" s="2" t="inlineStr"/>
+      <c r="K46" s="2" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr"/>
@@ -1113,6 +1163,7 @@
       <c r="H47" s="2" t="inlineStr"/>
       <c r="I47" s="2" t="inlineStr"/>
       <c r="J47" s="2" t="inlineStr"/>
+      <c r="K47" s="2" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr"/>
@@ -1125,6 +1176,7 @@
       <c r="H48" s="2" t="inlineStr"/>
       <c r="I48" s="2" t="inlineStr"/>
       <c r="J48" s="2" t="inlineStr"/>
+      <c r="K48" s="2" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr"/>
@@ -1137,6 +1189,7 @@
       <c r="H49" s="2" t="inlineStr"/>
       <c r="I49" s="2" t="inlineStr"/>
       <c r="J49" s="2" t="inlineStr"/>
+      <c r="K49" s="2" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr"/>
@@ -1149,6 +1202,7 @@
       <c r="H50" s="2" t="inlineStr"/>
       <c r="I50" s="2" t="inlineStr"/>
       <c r="J50" s="2" t="inlineStr"/>
+      <c r="K50" s="2" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr"/>
@@ -1161,6 +1215,7 @@
       <c r="H51" s="2" t="inlineStr"/>
       <c r="I51" s="2" t="inlineStr"/>
       <c r="J51" s="2" t="inlineStr"/>
+      <c r="K51" s="2" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr"/>
@@ -1173,6 +1228,7 @@
       <c r="H52" s="2" t="inlineStr"/>
       <c r="I52" s="2" t="inlineStr"/>
       <c r="J52" s="2" t="inlineStr"/>
+      <c r="K52" s="2" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr"/>
@@ -1184,7 +1240,8 @@
       <c r="G53" s="2" t="inlineStr"/>
       <c r="H53" s="2" t="inlineStr"/>
       <c r="I53" s="2" t="inlineStr"/>
-      <c r="J53" s="2" t="n">
+      <c r="J53" s="2" t="inlineStr"/>
+      <c r="K53" s="2" t="n">
         <v>120</v>
       </c>
     </row>
@@ -1199,6 +1256,7 @@
       <c r="H54" s="2" t="inlineStr"/>
       <c r="I54" s="2" t="inlineStr"/>
       <c r="J54" s="2" t="inlineStr"/>
+      <c r="K54" s="2" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr"/>
@@ -1210,7 +1268,8 @@
       <c r="G55" s="2" t="inlineStr"/>
       <c r="H55" s="2" t="inlineStr"/>
       <c r="I55" s="2" t="inlineStr"/>
-      <c r="J55" s="2" t="n">
+      <c r="J55" s="2" t="inlineStr"/>
+      <c r="K55" s="2" t="n">
         <v>120</v>
       </c>
     </row>
@@ -1225,6 +1284,7 @@
       <c r="H56" s="2" t="inlineStr"/>
       <c r="I56" s="2" t="inlineStr"/>
       <c r="J56" s="2" t="inlineStr"/>
+      <c r="K56" s="2" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr"/>
@@ -1237,6 +1297,7 @@
       <c r="H57" s="2" t="inlineStr"/>
       <c r="I57" s="2" t="inlineStr"/>
       <c r="J57" s="2" t="inlineStr"/>
+      <c r="K57" s="2" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr"/>
@@ -1249,6 +1310,7 @@
       <c r="H58" s="2" t="inlineStr"/>
       <c r="I58" s="2" t="inlineStr"/>
       <c r="J58" s="2" t="inlineStr"/>
+      <c r="K58" s="2" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr"/>
@@ -1261,6 +1323,7 @@
       <c r="H59" s="2" t="inlineStr"/>
       <c r="I59" s="2" t="inlineStr"/>
       <c r="J59" s="2" t="inlineStr"/>
+      <c r="K59" s="2" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr"/>
@@ -1273,6 +1336,7 @@
       <c r="H60" s="2" t="inlineStr"/>
       <c r="I60" s="2" t="inlineStr"/>
       <c r="J60" s="2" t="inlineStr"/>
+      <c r="K60" s="2" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr"/>
@@ -1284,7 +1348,8 @@
       <c r="G61" s="2" t="inlineStr"/>
       <c r="H61" s="2" t="inlineStr"/>
       <c r="I61" s="2" t="inlineStr"/>
-      <c r="J61" s="2" t="n">
+      <c r="J61" s="2" t="inlineStr"/>
+      <c r="K61" s="2" t="n">
         <v>120</v>
       </c>
     </row>
@@ -1299,6 +1364,7 @@
       <c r="H62" s="2" t="inlineStr"/>
       <c r="I62" s="2" t="inlineStr"/>
       <c r="J62" s="2" t="inlineStr"/>
+      <c r="K62" s="2" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="2" t="inlineStr"/>
@@ -1310,7 +1376,8 @@
       <c r="G63" s="2" t="inlineStr"/>
       <c r="H63" s="2" t="inlineStr"/>
       <c r="I63" s="2" t="inlineStr"/>
-      <c r="J63" s="2" t="n">
+      <c r="J63" s="2" t="inlineStr"/>
+      <c r="K63" s="2" t="n">
         <v>120</v>
       </c>
     </row>
@@ -1327,6 +1394,7 @@
       <c r="H64" s="2" t="inlineStr"/>
       <c r="I64" s="2" t="inlineStr"/>
       <c r="J64" s="2" t="inlineStr"/>
+      <c r="K64" s="2" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="2" t="inlineStr"/>
@@ -1341,6 +1409,7 @@
       <c r="H65" s="2" t="inlineStr"/>
       <c r="I65" s="2" t="inlineStr"/>
       <c r="J65" s="2" t="inlineStr"/>
+      <c r="K65" s="2" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr"/>
@@ -1353,6 +1422,7 @@
       <c r="H66" s="2" t="inlineStr"/>
       <c r="I66" s="2" t="inlineStr"/>
       <c r="J66" s="2" t="inlineStr"/>
+      <c r="K66" s="2" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="2" t="inlineStr"/>
@@ -1365,6 +1435,7 @@
       <c r="H67" s="2" t="inlineStr"/>
       <c r="I67" s="2" t="inlineStr"/>
       <c r="J67" s="2" t="inlineStr"/>
+      <c r="K67" s="2" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="2" t="inlineStr"/>
@@ -1377,6 +1448,7 @@
       <c r="H68" s="2" t="inlineStr"/>
       <c r="I68" s="2" t="inlineStr"/>
       <c r="J68" s="2" t="inlineStr"/>
+      <c r="K68" s="2" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="2" t="inlineStr"/>
@@ -1389,6 +1461,7 @@
       <c r="H69" s="2" t="inlineStr"/>
       <c r="I69" s="2" t="inlineStr"/>
       <c r="J69" s="2" t="inlineStr"/>
+      <c r="K69" s="2" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="2" t="inlineStr"/>
@@ -1401,6 +1474,7 @@
       <c r="H70" s="2" t="inlineStr"/>
       <c r="I70" s="2" t="inlineStr"/>
       <c r="J70" s="2" t="inlineStr"/>
+      <c r="K70" s="2" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="2" t="inlineStr"/>
@@ -1413,6 +1487,7 @@
       <c r="H71" s="2" t="inlineStr"/>
       <c r="I71" s="2" t="inlineStr"/>
       <c r="J71" s="2" t="inlineStr"/>
+      <c r="K71" s="2" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="2" t="inlineStr"/>
@@ -1425,6 +1500,7 @@
       <c r="H72" s="2" t="inlineStr"/>
       <c r="I72" s="2" t="inlineStr"/>
       <c r="J72" s="2" t="inlineStr"/>
+      <c r="K72" s="2" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="2" t="inlineStr"/>
@@ -1437,6 +1513,7 @@
       <c r="H73" s="2" t="inlineStr"/>
       <c r="I73" s="2" t="inlineStr"/>
       <c r="J73" s="2" t="inlineStr"/>
+      <c r="K73" s="2" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="2" t="inlineStr"/>
@@ -1449,6 +1526,7 @@
       <c r="H74" s="2" t="inlineStr"/>
       <c r="I74" s="2" t="inlineStr"/>
       <c r="J74" s="2" t="inlineStr"/>
+      <c r="K74" s="2" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="2" t="inlineStr"/>
@@ -1461,6 +1539,7 @@
       <c r="H75" s="2" t="inlineStr"/>
       <c r="I75" s="2" t="inlineStr"/>
       <c r="J75" s="2" t="inlineStr"/>
+      <c r="K75" s="2" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="2" t="inlineStr"/>
@@ -1473,6 +1552,7 @@
       <c r="H76" s="2" t="inlineStr"/>
       <c r="I76" s="2" t="inlineStr"/>
       <c r="J76" s="2" t="inlineStr"/>
+      <c r="K76" s="2" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="2" t="inlineStr"/>
@@ -1485,6 +1565,7 @@
       <c r="H77" s="2" t="inlineStr"/>
       <c r="I77" s="2" t="inlineStr"/>
       <c r="J77" s="2" t="inlineStr"/>
+      <c r="K77" s="2" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="2" t="inlineStr"/>
@@ -1497,6 +1578,7 @@
       <c r="H78" s="2" t="inlineStr"/>
       <c r="I78" s="2" t="inlineStr"/>
       <c r="J78" s="2" t="inlineStr"/>
+      <c r="K78" s="2" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="2" t="inlineStr"/>
@@ -1509,6 +1591,7 @@
       <c r="H79" s="2" t="inlineStr"/>
       <c r="I79" s="2" t="inlineStr"/>
       <c r="J79" s="2" t="inlineStr"/>
+      <c r="K79" s="2" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="2" t="inlineStr"/>
@@ -1521,6 +1604,7 @@
       <c r="H80" s="2" t="inlineStr"/>
       <c r="I80" s="2" t="inlineStr"/>
       <c r="J80" s="2" t="inlineStr"/>
+      <c r="K80" s="2" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="2" t="inlineStr"/>
@@ -1533,6 +1617,7 @@
       <c r="H81" s="2" t="inlineStr"/>
       <c r="I81" s="2" t="inlineStr"/>
       <c r="J81" s="2" t="inlineStr"/>
+      <c r="K81" s="2" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="2" t="inlineStr"/>
@@ -1545,6 +1630,7 @@
       <c r="H82" s="2" t="inlineStr"/>
       <c r="I82" s="2" t="inlineStr"/>
       <c r="J82" s="2" t="inlineStr"/>
+      <c r="K82" s="2" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="2" t="inlineStr"/>
@@ -1557,6 +1643,7 @@
       <c r="H83" s="2" t="inlineStr"/>
       <c r="I83" s="2" t="inlineStr"/>
       <c r="J83" s="2" t="inlineStr"/>
+      <c r="K83" s="2" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="2" t="inlineStr"/>
@@ -1569,6 +1656,7 @@
       <c r="H84" s="2" t="inlineStr"/>
       <c r="I84" s="2" t="inlineStr"/>
       <c r="J84" s="2" t="inlineStr"/>
+      <c r="K84" s="2" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="2" t="inlineStr"/>
@@ -1581,6 +1669,7 @@
       <c r="H85" s="2" t="inlineStr"/>
       <c r="I85" s="2" t="inlineStr"/>
       <c r="J85" s="2" t="inlineStr"/>
+      <c r="K85" s="2" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="2" t="inlineStr"/>
@@ -1593,6 +1682,7 @@
       <c r="H86" s="2" t="inlineStr"/>
       <c r="I86" s="2" t="inlineStr"/>
       <c r="J86" s="2" t="inlineStr"/>
+      <c r="K86" s="2" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="2" t="inlineStr"/>
@@ -1605,6 +1695,7 @@
       <c r="H87" s="2" t="inlineStr"/>
       <c r="I87" s="2" t="inlineStr"/>
       <c r="J87" s="2" t="inlineStr"/>
+      <c r="K87" s="2" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="2" t="inlineStr"/>
@@ -1617,6 +1708,7 @@
       <c r="H88" s="2" t="inlineStr"/>
       <c r="I88" s="2" t="inlineStr"/>
       <c r="J88" s="2" t="inlineStr"/>
+      <c r="K88" s="2" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="2" t="inlineStr"/>
@@ -1629,6 +1721,7 @@
       <c r="H89" s="2" t="inlineStr"/>
       <c r="I89" s="2" t="inlineStr"/>
       <c r="J89" s="2" t="inlineStr"/>
+      <c r="K89" s="2" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="2" t="inlineStr"/>
@@ -1641,6 +1734,7 @@
       <c r="H90" s="2" t="inlineStr"/>
       <c r="I90" s="2" t="inlineStr"/>
       <c r="J90" s="2" t="inlineStr"/>
+      <c r="K90" s="2" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="2" t="inlineStr"/>
@@ -1653,6 +1747,7 @@
       <c r="H91" s="2" t="inlineStr"/>
       <c r="I91" s="2" t="inlineStr"/>
       <c r="J91" s="2" t="inlineStr"/>
+      <c r="K91" s="2" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="2" t="inlineStr"/>
@@ -1665,6 +1760,7 @@
       <c r="H92" s="2" t="inlineStr"/>
       <c r="I92" s="2" t="inlineStr"/>
       <c r="J92" s="2" t="inlineStr"/>
+      <c r="K92" s="2" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="2" t="inlineStr"/>
@@ -1677,6 +1773,7 @@
       <c r="H93" s="2" t="inlineStr"/>
       <c r="I93" s="2" t="inlineStr"/>
       <c r="J93" s="2" t="inlineStr"/>
+      <c r="K93" s="2" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="2" t="inlineStr"/>
@@ -1691,6 +1788,7 @@
       <c r="H94" s="2" t="inlineStr"/>
       <c r="I94" s="2" t="inlineStr"/>
       <c r="J94" s="2" t="inlineStr"/>
+      <c r="K94" s="2" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="2" t="inlineStr"/>
@@ -1703,6 +1801,7 @@
       <c r="H95" s="2" t="inlineStr"/>
       <c r="I95" s="2" t="inlineStr"/>
       <c r="J95" s="2" t="inlineStr"/>
+      <c r="K95" s="2" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="2" t="inlineStr"/>
@@ -1715,6 +1814,7 @@
       <c r="H96" s="2" t="inlineStr"/>
       <c r="I96" s="2" t="inlineStr"/>
       <c r="J96" s="2" t="inlineStr"/>
+      <c r="K96" s="2" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="2" t="inlineStr"/>
@@ -1729,6 +1829,7 @@
       <c r="H97" s="2" t="inlineStr"/>
       <c r="I97" s="2" t="inlineStr"/>
       <c r="J97" s="2" t="inlineStr"/>
+      <c r="K97" s="2" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="2" t="inlineStr"/>
@@ -1743,6 +1844,7 @@
       <c r="H98" s="2" t="inlineStr"/>
       <c r="I98" s="2" t="inlineStr"/>
       <c r="J98" s="2" t="inlineStr"/>
+      <c r="K98" s="2" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="2" t="inlineStr"/>
@@ -1757,6 +1859,7 @@
       <c r="H99" s="2" t="inlineStr"/>
       <c r="I99" s="2" t="inlineStr"/>
       <c r="J99" s="2" t="inlineStr"/>
+      <c r="K99" s="2" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="2" t="inlineStr"/>
@@ -1769,6 +1872,7 @@
       <c r="H100" s="2" t="inlineStr"/>
       <c r="I100" s="2" t="inlineStr"/>
       <c r="J100" s="2" t="inlineStr"/>
+      <c r="K100" s="2" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="2" t="inlineStr"/>
@@ -1781,6 +1885,7 @@
       <c r="H101" s="2" t="inlineStr"/>
       <c r="I101" s="2" t="inlineStr"/>
       <c r="J101" s="2" t="inlineStr"/>
+      <c r="K101" s="2" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="2" t="inlineStr"/>
@@ -1793,6 +1898,7 @@
       <c r="H102" s="2" t="inlineStr"/>
       <c r="I102" s="2" t="inlineStr"/>
       <c r="J102" s="2" t="inlineStr"/>
+      <c r="K102" s="2" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="2" t="inlineStr"/>
@@ -1805,6 +1911,7 @@
       <c r="H103" s="2" t="inlineStr"/>
       <c r="I103" s="2" t="inlineStr"/>
       <c r="J103" s="2" t="inlineStr"/>
+      <c r="K103" s="2" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="2" t="inlineStr"/>
@@ -1817,6 +1924,7 @@
       <c r="H104" s="2" t="inlineStr"/>
       <c r="I104" s="2" t="inlineStr"/>
       <c r="J104" s="2" t="inlineStr"/>
+      <c r="K104" s="2" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="2" t="inlineStr"/>
@@ -1831,6 +1939,7 @@
       <c r="H105" s="2" t="inlineStr"/>
       <c r="I105" s="2" t="inlineStr"/>
       <c r="J105" s="2" t="inlineStr"/>
+      <c r="K105" s="2" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="2" t="inlineStr"/>
@@ -1843,6 +1952,7 @@
       <c r="H106" s="2" t="inlineStr"/>
       <c r="I106" s="2" t="inlineStr"/>
       <c r="J106" s="2" t="inlineStr"/>
+      <c r="K106" s="2" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="2" t="inlineStr"/>
@@ -1855,6 +1965,7 @@
       <c r="H107" s="2" t="inlineStr"/>
       <c r="I107" s="2" t="inlineStr"/>
       <c r="J107" s="2" t="inlineStr"/>
+      <c r="K107" s="2" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="2" t="inlineStr"/>
@@ -1867,6 +1978,7 @@
       <c r="H108" s="2" t="inlineStr"/>
       <c r="I108" s="2" t="inlineStr"/>
       <c r="J108" s="2" t="inlineStr"/>
+      <c r="K108" s="2" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="2" t="inlineStr"/>
@@ -1879,6 +1991,7 @@
       <c r="H109" s="2" t="inlineStr"/>
       <c r="I109" s="2" t="inlineStr"/>
       <c r="J109" s="2" t="inlineStr"/>
+      <c r="K109" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -108,8 +108,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="3500488539710092671" xfId="1" hidden="0"/>
-    <cellStyle name="8829697651784778690" xfId="2" hidden="0"/>
+    <cellStyle name="8423842614405035414" xfId="1" hidden="0"/>
+    <cellStyle name="5118538452502248435" xfId="2" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>

--- a/output.xlsx
+++ b/output.xlsx
@@ -108,8 +108,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="8423842614405035414" xfId="1" hidden="0"/>
-    <cellStyle name="5118538452502248435" xfId="2" hidden="0"/>
+    <cellStyle name="2015930200087860444" xfId="1" hidden="0"/>
+    <cellStyle name="-2184108107291805087" xfId="2" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>

--- a/output.xlsx
+++ b/output.xlsx
@@ -108,8 +108,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="2015930200087860444" xfId="1" hidden="0"/>
-    <cellStyle name="-2184108107291805087" xfId="2" hidden="0"/>
+    <cellStyle name="-7876568630710980052" xfId="1" hidden="0"/>
+    <cellStyle name="217169890785775357" xfId="2" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>

--- a/output.xlsx
+++ b/output.xlsx
@@ -108,8 +108,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="-7876568630710980052" xfId="1" hidden="0"/>
-    <cellStyle name="217169890785775357" xfId="2" hidden="0"/>
+    <cellStyle name="4346370988887037708" xfId="1" hidden="0"/>
+    <cellStyle name="3265809155876148281" xfId="2" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>

--- a/output.xlsx
+++ b/output.xlsx
@@ -108,8 +108,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="4346370988887037708" xfId="1" hidden="0"/>
-    <cellStyle name="3265809155876148281" xfId="2" hidden="0"/>
+    <cellStyle name="4794138399702202603" xfId="1" hidden="0"/>
+    <cellStyle name="2120477165920698026" xfId="2" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -805,10 +805,10 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr"/>
       <c r="B21" s="2" t="inlineStr"/>
-      <c r="C21" s="2" t="n">
-        <v>120</v>
-      </c>
-      <c r="D21" s="2" t="inlineStr"/>
+      <c r="C21" s="2" t="inlineStr"/>
+      <c r="D21" s="2" t="n">
+        <v>120</v>
+      </c>
       <c r="E21" s="2" t="inlineStr"/>
       <c r="F21" s="2" t="inlineStr"/>
       <c r="G21" s="2" t="inlineStr"/>
@@ -820,10 +820,10 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr"/>
       <c r="B22" s="2" t="inlineStr"/>
-      <c r="C22" s="2" t="n">
-        <v>120</v>
-      </c>
-      <c r="D22" s="2" t="inlineStr"/>
+      <c r="C22" s="2" t="inlineStr"/>
+      <c r="D22" s="2" t="n">
+        <v>120</v>
+      </c>
       <c r="E22" s="2" t="inlineStr"/>
       <c r="F22" s="2" t="inlineStr"/>
       <c r="G22" s="2" t="inlineStr"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -108,8 +108,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="4794138399702202603" xfId="1" hidden="0"/>
-    <cellStyle name="2120477165920698026" xfId="2" hidden="0"/>
+    <cellStyle name="-5538936458688929691" xfId="1" hidden="0"/>
+    <cellStyle name="5427631419562365836" xfId="2" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -472,7 +472,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K109"/>
+  <dimension ref="A1:K115"/>
   <sheetViews>
     <sheetView rightToLeft="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Sl No</t>
+          <t>Row-Number</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -1044,9 +1044,7 @@
       <c r="H38" s="2" t="inlineStr"/>
       <c r="I38" s="2" t="inlineStr"/>
       <c r="J38" s="2" t="inlineStr"/>
-      <c r="K38" s="2" t="n">
-        <v>120</v>
-      </c>
+      <c r="K38" s="2" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr"/>
@@ -1241,9 +1239,7 @@
       <c r="H53" s="2" t="inlineStr"/>
       <c r="I53" s="2" t="inlineStr"/>
       <c r="J53" s="2" t="inlineStr"/>
-      <c r="K53" s="2" t="n">
-        <v>120</v>
-      </c>
+      <c r="K53" s="2" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr"/>
@@ -1269,9 +1265,7 @@
       <c r="H55" s="2" t="inlineStr"/>
       <c r="I55" s="2" t="inlineStr"/>
       <c r="J55" s="2" t="inlineStr"/>
-      <c r="K55" s="2" t="n">
-        <v>120</v>
-      </c>
+      <c r="K55" s="2" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr"/>
@@ -1349,9 +1343,7 @@
       <c r="H61" s="2" t="inlineStr"/>
       <c r="I61" s="2" t="inlineStr"/>
       <c r="J61" s="2" t="inlineStr"/>
-      <c r="K61" s="2" t="n">
-        <v>120</v>
-      </c>
+      <c r="K61" s="2" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr"/>
@@ -1377,9 +1369,7 @@
       <c r="H63" s="2" t="inlineStr"/>
       <c r="I63" s="2" t="inlineStr"/>
       <c r="J63" s="2" t="inlineStr"/>
-      <c r="K63" s="2" t="n">
-        <v>120</v>
-      </c>
+      <c r="K63" s="2" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr"/>
@@ -1993,6 +1983,84 @@
       <c r="J109" s="2" t="inlineStr"/>
       <c r="K109" s="2" t="inlineStr"/>
     </row>
+    <row r="110">
+      <c r="A110" s="2" t="inlineStr"/>
+      <c r="B110" s="2" t="inlineStr"/>
+      <c r="C110" s="2" t="inlineStr"/>
+      <c r="D110" s="2" t="inlineStr"/>
+      <c r="E110" s="2" t="inlineStr"/>
+      <c r="F110" s="2" t="inlineStr"/>
+      <c r="G110" s="2" t="inlineStr"/>
+      <c r="H110" s="2" t="inlineStr"/>
+      <c r="I110" s="2" t="inlineStr"/>
+      <c r="J110" s="2" t="inlineStr"/>
+      <c r="K110" s="2" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="inlineStr"/>
+      <c r="B111" s="2" t="inlineStr"/>
+      <c r="C111" s="2" t="inlineStr"/>
+      <c r="D111" s="2" t="inlineStr"/>
+      <c r="E111" s="2" t="inlineStr"/>
+      <c r="F111" s="2" t="inlineStr"/>
+      <c r="G111" s="2" t="inlineStr"/>
+      <c r="H111" s="2" t="inlineStr"/>
+      <c r="I111" s="2" t="inlineStr"/>
+      <c r="J111" s="2" t="inlineStr"/>
+      <c r="K111" s="2" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="inlineStr"/>
+      <c r="B112" s="2" t="inlineStr"/>
+      <c r="C112" s="2" t="inlineStr"/>
+      <c r="D112" s="2" t="inlineStr"/>
+      <c r="E112" s="2" t="inlineStr"/>
+      <c r="F112" s="2" t="inlineStr"/>
+      <c r="G112" s="2" t="inlineStr"/>
+      <c r="H112" s="2" t="inlineStr"/>
+      <c r="I112" s="2" t="inlineStr"/>
+      <c r="J112" s="2" t="inlineStr"/>
+      <c r="K112" s="2" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="inlineStr"/>
+      <c r="B113" s="2" t="inlineStr"/>
+      <c r="C113" s="2" t="inlineStr"/>
+      <c r="D113" s="2" t="inlineStr"/>
+      <c r="E113" s="2" t="inlineStr"/>
+      <c r="F113" s="2" t="inlineStr"/>
+      <c r="G113" s="2" t="inlineStr"/>
+      <c r="H113" s="2" t="inlineStr"/>
+      <c r="I113" s="2" t="inlineStr"/>
+      <c r="J113" s="2" t="inlineStr"/>
+      <c r="K113" s="2" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="inlineStr"/>
+      <c r="B114" s="2" t="inlineStr"/>
+      <c r="C114" s="2" t="inlineStr"/>
+      <c r="D114" s="2" t="inlineStr"/>
+      <c r="E114" s="2" t="inlineStr"/>
+      <c r="F114" s="2" t="inlineStr"/>
+      <c r="G114" s="2" t="inlineStr"/>
+      <c r="H114" s="2" t="inlineStr"/>
+      <c r="I114" s="2" t="inlineStr"/>
+      <c r="J114" s="2" t="inlineStr"/>
+      <c r="K114" s="2" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="inlineStr"/>
+      <c r="B115" s="2" t="inlineStr"/>
+      <c r="C115" s="2" t="inlineStr"/>
+      <c r="D115" s="2" t="inlineStr"/>
+      <c r="E115" s="2" t="inlineStr"/>
+      <c r="F115" s="2" t="inlineStr"/>
+      <c r="G115" s="2" t="inlineStr"/>
+      <c r="H115" s="2" t="inlineStr"/>
+      <c r="I115" s="2" t="inlineStr"/>
+      <c r="J115" s="2" t="inlineStr"/>
+      <c r="K115" s="2" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output.xlsx
+++ b/output.xlsx
@@ -108,8 +108,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="-5538936458688929691" xfId="1" hidden="0"/>
-    <cellStyle name="5427631419562365836" xfId="2" hidden="0"/>
+    <cellStyle name="-7066785748628507614" xfId="1" hidden="0"/>
+    <cellStyle name="-8325376127668717333" xfId="2" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>

--- a/output.xlsx
+++ b/output.xlsx
@@ -108,8 +108,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="-7066785748628507614" xfId="1" hidden="0"/>
-    <cellStyle name="-8325376127668717333" xfId="2" hidden="0"/>
+    <cellStyle name="-9008412021760575141" xfId="1" hidden="0"/>
+    <cellStyle name="4767586050252350142" xfId="2" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>

--- a/output.xlsx
+++ b/output.xlsx
@@ -108,8 +108,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="-9008412021760575141" xfId="1" hidden="0"/>
-    <cellStyle name="4767586050252350142" xfId="2" hidden="0"/>
+    <cellStyle name="6032265438046947517" xfId="1" hidden="0"/>
+    <cellStyle name="-4598278651758825336" xfId="2" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>

--- a/output.xlsx
+++ b/output.xlsx
@@ -108,8 +108,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="6032265438046947517" xfId="1" hidden="0"/>
-    <cellStyle name="-4598278651758825336" xfId="2" hidden="0"/>
+    <cellStyle name="-5619134584609816580" xfId="1" hidden="0"/>
+    <cellStyle name="-5543374028763687251" xfId="2" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>

--- a/output.xlsx
+++ b/output.xlsx
@@ -108,8 +108,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="-5619134584609816580" xfId="1" hidden="0"/>
-    <cellStyle name="-5543374028763687251" xfId="2" hidden="0"/>
+    <cellStyle name="-7129440822145954721" xfId="1" hidden="0"/>
+    <cellStyle name="4130414502418649594" xfId="2" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -472,7 +472,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K115"/>
+  <dimension ref="A1:J289"/>
   <sheetViews>
     <sheetView rightToLeft="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,11 +531,6 @@
           <t>Clubbing</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>A-Sentence</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr"/>
@@ -548,7 +543,6 @@
       <c r="H2" s="2" t="inlineStr"/>
       <c r="I2" s="2" t="inlineStr"/>
       <c r="J2" s="2" t="inlineStr"/>
-      <c r="K2" s="2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr"/>
@@ -561,97 +555,78 @@
       <c r="H3" s="2" t="inlineStr"/>
       <c r="I3" s="2" t="inlineStr"/>
       <c r="J3" s="2" t="inlineStr"/>
-      <c r="K3" s="2" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr"/>
       <c r="B4" s="2" t="inlineStr"/>
       <c r="C4" s="2" t="inlineStr"/>
-      <c r="D4" s="2" t="n">
-        <v>120</v>
-      </c>
+      <c r="D4" s="2" t="inlineStr"/>
       <c r="E4" s="2" t="inlineStr"/>
       <c r="F4" s="2" t="inlineStr"/>
       <c r="G4" s="2" t="inlineStr"/>
       <c r="H4" s="2" t="inlineStr"/>
       <c r="I4" s="2" t="inlineStr"/>
       <c r="J4" s="2" t="inlineStr"/>
-      <c r="K4" s="2" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr"/>
       <c r="B5" s="2" t="inlineStr"/>
       <c r="C5" s="2" t="inlineStr"/>
-      <c r="D5" s="2" t="n">
-        <v>120</v>
-      </c>
+      <c r="D5" s="2" t="inlineStr"/>
       <c r="E5" s="2" t="inlineStr"/>
       <c r="F5" s="2" t="inlineStr"/>
       <c r="G5" s="2" t="inlineStr"/>
       <c r="H5" s="2" t="inlineStr"/>
       <c r="I5" s="2" t="inlineStr"/>
       <c r="J5" s="2" t="inlineStr"/>
-      <c r="K5" s="2" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr"/>
       <c r="B6" s="2" t="inlineStr"/>
       <c r="C6" s="2" t="inlineStr"/>
-      <c r="D6" s="2" t="n">
-        <v>120</v>
-      </c>
+      <c r="D6" s="2" t="inlineStr"/>
       <c r="E6" s="2" t="inlineStr"/>
       <c r="F6" s="2" t="inlineStr"/>
       <c r="G6" s="2" t="inlineStr"/>
       <c r="H6" s="2" t="inlineStr"/>
       <c r="I6" s="2" t="inlineStr"/>
       <c r="J6" s="2" t="inlineStr"/>
-      <c r="K6" s="2" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr"/>
       <c r="B7" s="2" t="inlineStr"/>
       <c r="C7" s="2" t="inlineStr"/>
-      <c r="D7" s="2" t="n">
-        <v>120</v>
-      </c>
+      <c r="D7" s="2" t="inlineStr"/>
       <c r="E7" s="2" t="inlineStr"/>
       <c r="F7" s="2" t="inlineStr"/>
       <c r="G7" s="2" t="inlineStr"/>
       <c r="H7" s="2" t="inlineStr"/>
       <c r="I7" s="2" t="inlineStr"/>
       <c r="J7" s="2" t="inlineStr"/>
-      <c r="K7" s="2" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr"/>
       <c r="B8" s="2" t="inlineStr"/>
       <c r="C8" s="2" t="inlineStr"/>
-      <c r="D8" s="2" t="n">
-        <v>120</v>
-      </c>
+      <c r="D8" s="2" t="inlineStr"/>
       <c r="E8" s="2" t="inlineStr"/>
       <c r="F8" s="2" t="inlineStr"/>
       <c r="G8" s="2" t="inlineStr"/>
       <c r="H8" s="2" t="inlineStr"/>
       <c r="I8" s="2" t="inlineStr"/>
       <c r="J8" s="2" t="inlineStr"/>
-      <c r="K8" s="2" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr"/>
       <c r="B9" s="2" t="inlineStr"/>
       <c r="C9" s="2" t="inlineStr"/>
-      <c r="D9" s="2" t="n">
-        <v>120</v>
-      </c>
+      <c r="D9" s="2" t="inlineStr"/>
       <c r="E9" s="2" t="inlineStr"/>
       <c r="F9" s="2" t="inlineStr"/>
       <c r="G9" s="2" t="inlineStr"/>
       <c r="H9" s="2" t="inlineStr"/>
       <c r="I9" s="2" t="inlineStr"/>
       <c r="J9" s="2" t="inlineStr"/>
-      <c r="K9" s="2" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr"/>
@@ -664,7 +639,6 @@
       <c r="H10" s="2" t="inlineStr"/>
       <c r="I10" s="2" t="inlineStr"/>
       <c r="J10" s="2" t="inlineStr"/>
-      <c r="K10" s="2" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr"/>
@@ -677,7 +651,6 @@
       <c r="H11" s="2" t="inlineStr"/>
       <c r="I11" s="2" t="inlineStr"/>
       <c r="J11" s="2" t="inlineStr"/>
-      <c r="K11" s="2" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr"/>
@@ -690,7 +663,6 @@
       <c r="H12" s="2" t="inlineStr"/>
       <c r="I12" s="2" t="inlineStr"/>
       <c r="J12" s="2" t="inlineStr"/>
-      <c r="K12" s="2" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr"/>
@@ -703,7 +675,6 @@
       <c r="H13" s="2" t="inlineStr"/>
       <c r="I13" s="2" t="inlineStr"/>
       <c r="J13" s="2" t="inlineStr"/>
-      <c r="K13" s="2" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr"/>
@@ -716,7 +687,6 @@
       <c r="H14" s="2" t="inlineStr"/>
       <c r="I14" s="2" t="inlineStr"/>
       <c r="J14" s="2" t="inlineStr"/>
-      <c r="K14" s="2" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr"/>
@@ -729,7 +699,6 @@
       <c r="H15" s="2" t="inlineStr"/>
       <c r="I15" s="2" t="inlineStr"/>
       <c r="J15" s="2" t="inlineStr"/>
-      <c r="K15" s="2" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr"/>
@@ -742,52 +711,42 @@
       <c r="H16" s="2" t="inlineStr"/>
       <c r="I16" s="2" t="inlineStr"/>
       <c r="J16" s="2" t="inlineStr"/>
-      <c r="K16" s="2" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr"/>
       <c r="B17" s="2" t="inlineStr"/>
       <c r="C17" s="2" t="inlineStr"/>
-      <c r="D17" s="2" t="n">
-        <v>120</v>
-      </c>
+      <c r="D17" s="2" t="inlineStr"/>
       <c r="E17" s="2" t="inlineStr"/>
       <c r="F17" s="2" t="inlineStr"/>
       <c r="G17" s="2" t="inlineStr"/>
       <c r="H17" s="2" t="inlineStr"/>
       <c r="I17" s="2" t="inlineStr"/>
       <c r="J17" s="2" t="inlineStr"/>
-      <c r="K17" s="2" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr"/>
       <c r="B18" s="2" t="inlineStr"/>
       <c r="C18" s="2" t="inlineStr"/>
-      <c r="D18" s="2" t="n">
-        <v>120</v>
-      </c>
+      <c r="D18" s="2" t="inlineStr"/>
       <c r="E18" s="2" t="inlineStr"/>
       <c r="F18" s="2" t="inlineStr"/>
       <c r="G18" s="2" t="inlineStr"/>
       <c r="H18" s="2" t="inlineStr"/>
       <c r="I18" s="2" t="inlineStr"/>
       <c r="J18" s="2" t="inlineStr"/>
-      <c r="K18" s="2" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr"/>
       <c r="B19" s="2" t="inlineStr"/>
       <c r="C19" s="2" t="inlineStr"/>
-      <c r="D19" s="2" t="n">
-        <v>120</v>
-      </c>
+      <c r="D19" s="2" t="inlineStr"/>
       <c r="E19" s="2" t="inlineStr"/>
       <c r="F19" s="2" t="inlineStr"/>
       <c r="G19" s="2" t="inlineStr"/>
       <c r="H19" s="2" t="inlineStr"/>
       <c r="I19" s="2" t="inlineStr"/>
       <c r="J19" s="2" t="inlineStr"/>
-      <c r="K19" s="2" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr"/>
@@ -800,37 +759,30 @@
       <c r="H20" s="2" t="inlineStr"/>
       <c r="I20" s="2" t="inlineStr"/>
       <c r="J20" s="2" t="inlineStr"/>
-      <c r="K20" s="2" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr"/>
       <c r="B21" s="2" t="inlineStr"/>
       <c r="C21" s="2" t="inlineStr"/>
-      <c r="D21" s="2" t="n">
-        <v>120</v>
-      </c>
+      <c r="D21" s="2" t="inlineStr"/>
       <c r="E21" s="2" t="inlineStr"/>
       <c r="F21" s="2" t="inlineStr"/>
       <c r="G21" s="2" t="inlineStr"/>
       <c r="H21" s="2" t="inlineStr"/>
       <c r="I21" s="2" t="inlineStr"/>
       <c r="J21" s="2" t="inlineStr"/>
-      <c r="K21" s="2" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr"/>
       <c r="B22" s="2" t="inlineStr"/>
       <c r="C22" s="2" t="inlineStr"/>
-      <c r="D22" s="2" t="n">
-        <v>120</v>
-      </c>
+      <c r="D22" s="2" t="inlineStr"/>
       <c r="E22" s="2" t="inlineStr"/>
       <c r="F22" s="2" t="inlineStr"/>
       <c r="G22" s="2" t="inlineStr"/>
       <c r="H22" s="2" t="inlineStr"/>
       <c r="I22" s="2" t="inlineStr"/>
       <c r="J22" s="2" t="inlineStr"/>
-      <c r="K22" s="2" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr"/>
@@ -843,7 +795,6 @@
       <c r="H23" s="2" t="inlineStr"/>
       <c r="I23" s="2" t="inlineStr"/>
       <c r="J23" s="2" t="inlineStr"/>
-      <c r="K23" s="2" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr"/>
@@ -856,7 +807,6 @@
       <c r="H24" s="2" t="inlineStr"/>
       <c r="I24" s="2" t="inlineStr"/>
       <c r="J24" s="2" t="inlineStr"/>
-      <c r="K24" s="2" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr"/>
@@ -869,7 +819,6 @@
       <c r="H25" s="2" t="inlineStr"/>
       <c r="I25" s="2" t="inlineStr"/>
       <c r="J25" s="2" t="inlineStr"/>
-      <c r="K25" s="2" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr"/>
@@ -882,7 +831,6 @@
       <c r="H26" s="2" t="inlineStr"/>
       <c r="I26" s="2" t="inlineStr"/>
       <c r="J26" s="2" t="inlineStr"/>
-      <c r="K26" s="2" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr"/>
@@ -895,7 +843,6 @@
       <c r="H27" s="2" t="inlineStr"/>
       <c r="I27" s="2" t="inlineStr"/>
       <c r="J27" s="2" t="inlineStr"/>
-      <c r="K27" s="2" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr"/>
@@ -908,7 +855,6 @@
       <c r="H28" s="2" t="inlineStr"/>
       <c r="I28" s="2" t="inlineStr"/>
       <c r="J28" s="2" t="inlineStr"/>
-      <c r="K28" s="2" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr"/>
@@ -921,7 +867,6 @@
       <c r="H29" s="2" t="inlineStr"/>
       <c r="I29" s="2" t="inlineStr"/>
       <c r="J29" s="2" t="inlineStr"/>
-      <c r="K29" s="2" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr"/>
@@ -934,7 +879,6 @@
       <c r="H30" s="2" t="inlineStr"/>
       <c r="I30" s="2" t="inlineStr"/>
       <c r="J30" s="2" t="inlineStr"/>
-      <c r="K30" s="2" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr"/>
@@ -947,7 +891,6 @@
       <c r="H31" s="2" t="inlineStr"/>
       <c r="I31" s="2" t="inlineStr"/>
       <c r="J31" s="2" t="inlineStr"/>
-      <c r="K31" s="2" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr"/>
@@ -960,7 +903,6 @@
       <c r="H32" s="2" t="inlineStr"/>
       <c r="I32" s="2" t="inlineStr"/>
       <c r="J32" s="2" t="inlineStr"/>
-      <c r="K32" s="2" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr"/>
@@ -973,7 +915,6 @@
       <c r="H33" s="2" t="inlineStr"/>
       <c r="I33" s="2" t="inlineStr"/>
       <c r="J33" s="2" t="inlineStr"/>
-      <c r="K33" s="2" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr"/>
@@ -986,7 +927,6 @@
       <c r="H34" s="2" t="inlineStr"/>
       <c r="I34" s="2" t="inlineStr"/>
       <c r="J34" s="2" t="inlineStr"/>
-      <c r="K34" s="2" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr"/>
@@ -999,52 +939,42 @@
       <c r="H35" s="2" t="inlineStr"/>
       <c r="I35" s="2" t="inlineStr"/>
       <c r="J35" s="2" t="inlineStr"/>
-      <c r="K35" s="2" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr"/>
       <c r="B36" s="2" t="inlineStr"/>
       <c r="C36" s="2" t="inlineStr"/>
-      <c r="D36" s="2" t="n">
-        <v>120</v>
-      </c>
+      <c r="D36" s="2" t="inlineStr"/>
       <c r="E36" s="2" t="inlineStr"/>
       <c r="F36" s="2" t="inlineStr"/>
       <c r="G36" s="2" t="inlineStr"/>
       <c r="H36" s="2" t="inlineStr"/>
       <c r="I36" s="2" t="inlineStr"/>
       <c r="J36" s="2" t="inlineStr"/>
-      <c r="K36" s="2" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr"/>
       <c r="B37" s="2" t="inlineStr"/>
       <c r="C37" s="2" t="inlineStr"/>
-      <c r="D37" s="2" t="n">
-        <v>120</v>
-      </c>
+      <c r="D37" s="2" t="inlineStr"/>
       <c r="E37" s="2" t="inlineStr"/>
       <c r="F37" s="2" t="inlineStr"/>
       <c r="G37" s="2" t="inlineStr"/>
       <c r="H37" s="2" t="inlineStr"/>
       <c r="I37" s="2" t="inlineStr"/>
       <c r="J37" s="2" t="inlineStr"/>
-      <c r="K37" s="2" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr"/>
       <c r="B38" s="2" t="inlineStr"/>
       <c r="C38" s="2" t="inlineStr"/>
-      <c r="D38" s="2" t="n">
-        <v>120</v>
-      </c>
+      <c r="D38" s="2" t="inlineStr"/>
       <c r="E38" s="2" t="inlineStr"/>
       <c r="F38" s="2" t="inlineStr"/>
       <c r="G38" s="2" t="inlineStr"/>
       <c r="H38" s="2" t="inlineStr"/>
       <c r="I38" s="2" t="inlineStr"/>
       <c r="J38" s="2" t="inlineStr"/>
-      <c r="K38" s="2" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr"/>
@@ -1057,7 +987,6 @@
       <c r="H39" s="2" t="inlineStr"/>
       <c r="I39" s="2" t="inlineStr"/>
       <c r="J39" s="2" t="inlineStr"/>
-      <c r="K39" s="2" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr"/>
@@ -1070,7 +999,6 @@
       <c r="H40" s="2" t="inlineStr"/>
       <c r="I40" s="2" t="inlineStr"/>
       <c r="J40" s="2" t="inlineStr"/>
-      <c r="K40" s="2" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr"/>
@@ -1083,7 +1011,6 @@
       <c r="H41" s="2" t="inlineStr"/>
       <c r="I41" s="2" t="inlineStr"/>
       <c r="J41" s="2" t="inlineStr"/>
-      <c r="K41" s="2" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr"/>
@@ -1096,7 +1023,6 @@
       <c r="H42" s="2" t="inlineStr"/>
       <c r="I42" s="2" t="inlineStr"/>
       <c r="J42" s="2" t="inlineStr"/>
-      <c r="K42" s="2" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr"/>
@@ -1109,7 +1035,6 @@
       <c r="H43" s="2" t="inlineStr"/>
       <c r="I43" s="2" t="inlineStr"/>
       <c r="J43" s="2" t="inlineStr"/>
-      <c r="K43" s="2" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr"/>
@@ -1122,7 +1047,6 @@
       <c r="H44" s="2" t="inlineStr"/>
       <c r="I44" s="2" t="inlineStr"/>
       <c r="J44" s="2" t="inlineStr"/>
-      <c r="K44" s="2" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr"/>
@@ -1135,7 +1059,6 @@
       <c r="H45" s="2" t="inlineStr"/>
       <c r="I45" s="2" t="inlineStr"/>
       <c r="J45" s="2" t="inlineStr"/>
-      <c r="K45" s="2" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr"/>
@@ -1148,7 +1071,6 @@
       <c r="H46" s="2" t="inlineStr"/>
       <c r="I46" s="2" t="inlineStr"/>
       <c r="J46" s="2" t="inlineStr"/>
-      <c r="K46" s="2" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr"/>
@@ -1161,7 +1083,6 @@
       <c r="H47" s="2" t="inlineStr"/>
       <c r="I47" s="2" t="inlineStr"/>
       <c r="J47" s="2" t="inlineStr"/>
-      <c r="K47" s="2" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr"/>
@@ -1174,7 +1095,6 @@
       <c r="H48" s="2" t="inlineStr"/>
       <c r="I48" s="2" t="inlineStr"/>
       <c r="J48" s="2" t="inlineStr"/>
-      <c r="K48" s="2" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr"/>
@@ -1187,7 +1107,6 @@
       <c r="H49" s="2" t="inlineStr"/>
       <c r="I49" s="2" t="inlineStr"/>
       <c r="J49" s="2" t="inlineStr"/>
-      <c r="K49" s="2" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr"/>
@@ -1200,7 +1119,6 @@
       <c r="H50" s="2" t="inlineStr"/>
       <c r="I50" s="2" t="inlineStr"/>
       <c r="J50" s="2" t="inlineStr"/>
-      <c r="K50" s="2" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr"/>
@@ -1213,7 +1131,6 @@
       <c r="H51" s="2" t="inlineStr"/>
       <c r="I51" s="2" t="inlineStr"/>
       <c r="J51" s="2" t="inlineStr"/>
-      <c r="K51" s="2" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr"/>
@@ -1226,7 +1143,6 @@
       <c r="H52" s="2" t="inlineStr"/>
       <c r="I52" s="2" t="inlineStr"/>
       <c r="J52" s="2" t="inlineStr"/>
-      <c r="K52" s="2" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr"/>
@@ -1239,7 +1155,6 @@
       <c r="H53" s="2" t="inlineStr"/>
       <c r="I53" s="2" t="inlineStr"/>
       <c r="J53" s="2" t="inlineStr"/>
-      <c r="K53" s="2" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr"/>
@@ -1252,7 +1167,6 @@
       <c r="H54" s="2" t="inlineStr"/>
       <c r="I54" s="2" t="inlineStr"/>
       <c r="J54" s="2" t="inlineStr"/>
-      <c r="K54" s="2" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr"/>
@@ -1265,7 +1179,6 @@
       <c r="H55" s="2" t="inlineStr"/>
       <c r="I55" s="2" t="inlineStr"/>
       <c r="J55" s="2" t="inlineStr"/>
-      <c r="K55" s="2" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr"/>
@@ -1278,7 +1191,6 @@
       <c r="H56" s="2" t="inlineStr"/>
       <c r="I56" s="2" t="inlineStr"/>
       <c r="J56" s="2" t="inlineStr"/>
-      <c r="K56" s="2" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr"/>
@@ -1291,7 +1203,6 @@
       <c r="H57" s="2" t="inlineStr"/>
       <c r="I57" s="2" t="inlineStr"/>
       <c r="J57" s="2" t="inlineStr"/>
-      <c r="K57" s="2" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr"/>
@@ -1304,7 +1215,6 @@
       <c r="H58" s="2" t="inlineStr"/>
       <c r="I58" s="2" t="inlineStr"/>
       <c r="J58" s="2" t="inlineStr"/>
-      <c r="K58" s="2" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr"/>
@@ -1317,7 +1227,6 @@
       <c r="H59" s="2" t="inlineStr"/>
       <c r="I59" s="2" t="inlineStr"/>
       <c r="J59" s="2" t="inlineStr"/>
-      <c r="K59" s="2" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr"/>
@@ -1330,7 +1239,6 @@
       <c r="H60" s="2" t="inlineStr"/>
       <c r="I60" s="2" t="inlineStr"/>
       <c r="J60" s="2" t="inlineStr"/>
-      <c r="K60" s="2" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr"/>
@@ -1343,7 +1251,6 @@
       <c r="H61" s="2" t="inlineStr"/>
       <c r="I61" s="2" t="inlineStr"/>
       <c r="J61" s="2" t="inlineStr"/>
-      <c r="K61" s="2" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr"/>
@@ -1356,7 +1263,6 @@
       <c r="H62" s="2" t="inlineStr"/>
       <c r="I62" s="2" t="inlineStr"/>
       <c r="J62" s="2" t="inlineStr"/>
-      <c r="K62" s="2" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="2" t="inlineStr"/>
@@ -1369,22 +1275,18 @@
       <c r="H63" s="2" t="inlineStr"/>
       <c r="I63" s="2" t="inlineStr"/>
       <c r="J63" s="2" t="inlineStr"/>
-      <c r="K63" s="2" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr"/>
       <c r="B64" s="2" t="inlineStr"/>
       <c r="C64" s="2" t="inlineStr"/>
-      <c r="D64" s="2" t="n">
-        <v>120</v>
-      </c>
+      <c r="D64" s="2" t="inlineStr"/>
       <c r="E64" s="2" t="inlineStr"/>
       <c r="F64" s="2" t="inlineStr"/>
       <c r="G64" s="2" t="inlineStr"/>
       <c r="H64" s="2" t="inlineStr"/>
       <c r="I64" s="2" t="inlineStr"/>
       <c r="J64" s="2" t="inlineStr"/>
-      <c r="K64" s="2" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="2" t="inlineStr"/>
@@ -1399,20 +1301,20 @@
       <c r="H65" s="2" t="inlineStr"/>
       <c r="I65" s="2" t="inlineStr"/>
       <c r="J65" s="2" t="inlineStr"/>
-      <c r="K65" s="2" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr"/>
       <c r="B66" s="2" t="inlineStr"/>
       <c r="C66" s="2" t="inlineStr"/>
-      <c r="D66" s="2" t="inlineStr"/>
+      <c r="D66" s="2" t="n">
+        <v>120</v>
+      </c>
       <c r="E66" s="2" t="inlineStr"/>
       <c r="F66" s="2" t="inlineStr"/>
       <c r="G66" s="2" t="inlineStr"/>
       <c r="H66" s="2" t="inlineStr"/>
       <c r="I66" s="2" t="inlineStr"/>
       <c r="J66" s="2" t="inlineStr"/>
-      <c r="K66" s="2" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="2" t="inlineStr"/>
@@ -1425,7 +1327,6 @@
       <c r="H67" s="2" t="inlineStr"/>
       <c r="I67" s="2" t="inlineStr"/>
       <c r="J67" s="2" t="inlineStr"/>
-      <c r="K67" s="2" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="2" t="inlineStr"/>
@@ -1438,7 +1339,6 @@
       <c r="H68" s="2" t="inlineStr"/>
       <c r="I68" s="2" t="inlineStr"/>
       <c r="J68" s="2" t="inlineStr"/>
-      <c r="K68" s="2" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="2" t="inlineStr"/>
@@ -1451,7 +1351,6 @@
       <c r="H69" s="2" t="inlineStr"/>
       <c r="I69" s="2" t="inlineStr"/>
       <c r="J69" s="2" t="inlineStr"/>
-      <c r="K69" s="2" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="2" t="inlineStr"/>
@@ -1464,7 +1363,6 @@
       <c r="H70" s="2" t="inlineStr"/>
       <c r="I70" s="2" t="inlineStr"/>
       <c r="J70" s="2" t="inlineStr"/>
-      <c r="K70" s="2" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="2" t="inlineStr"/>
@@ -1477,7 +1375,6 @@
       <c r="H71" s="2" t="inlineStr"/>
       <c r="I71" s="2" t="inlineStr"/>
       <c r="J71" s="2" t="inlineStr"/>
-      <c r="K71" s="2" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="2" t="inlineStr"/>
@@ -1490,7 +1387,6 @@
       <c r="H72" s="2" t="inlineStr"/>
       <c r="I72" s="2" t="inlineStr"/>
       <c r="J72" s="2" t="inlineStr"/>
-      <c r="K72" s="2" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="2" t="inlineStr"/>
@@ -1503,7 +1399,6 @@
       <c r="H73" s="2" t="inlineStr"/>
       <c r="I73" s="2" t="inlineStr"/>
       <c r="J73" s="2" t="inlineStr"/>
-      <c r="K73" s="2" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="2" t="inlineStr"/>
@@ -1516,7 +1411,6 @@
       <c r="H74" s="2" t="inlineStr"/>
       <c r="I74" s="2" t="inlineStr"/>
       <c r="J74" s="2" t="inlineStr"/>
-      <c r="K74" s="2" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="2" t="inlineStr"/>
@@ -1529,7 +1423,6 @@
       <c r="H75" s="2" t="inlineStr"/>
       <c r="I75" s="2" t="inlineStr"/>
       <c r="J75" s="2" t="inlineStr"/>
-      <c r="K75" s="2" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="2" t="inlineStr"/>
@@ -1542,7 +1435,6 @@
       <c r="H76" s="2" t="inlineStr"/>
       <c r="I76" s="2" t="inlineStr"/>
       <c r="J76" s="2" t="inlineStr"/>
-      <c r="K76" s="2" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="2" t="inlineStr"/>
@@ -1555,7 +1447,6 @@
       <c r="H77" s="2" t="inlineStr"/>
       <c r="I77" s="2" t="inlineStr"/>
       <c r="J77" s="2" t="inlineStr"/>
-      <c r="K77" s="2" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="2" t="inlineStr"/>
@@ -1568,7 +1459,6 @@
       <c r="H78" s="2" t="inlineStr"/>
       <c r="I78" s="2" t="inlineStr"/>
       <c r="J78" s="2" t="inlineStr"/>
-      <c r="K78" s="2" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="2" t="inlineStr"/>
@@ -1581,7 +1471,6 @@
       <c r="H79" s="2" t="inlineStr"/>
       <c r="I79" s="2" t="inlineStr"/>
       <c r="J79" s="2" t="inlineStr"/>
-      <c r="K79" s="2" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="2" t="inlineStr"/>
@@ -1594,7 +1483,6 @@
       <c r="H80" s="2" t="inlineStr"/>
       <c r="I80" s="2" t="inlineStr"/>
       <c r="J80" s="2" t="inlineStr"/>
-      <c r="K80" s="2" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="2" t="inlineStr"/>
@@ -1607,7 +1495,6 @@
       <c r="H81" s="2" t="inlineStr"/>
       <c r="I81" s="2" t="inlineStr"/>
       <c r="J81" s="2" t="inlineStr"/>
-      <c r="K81" s="2" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="2" t="inlineStr"/>
@@ -1620,7 +1507,6 @@
       <c r="H82" s="2" t="inlineStr"/>
       <c r="I82" s="2" t="inlineStr"/>
       <c r="J82" s="2" t="inlineStr"/>
-      <c r="K82" s="2" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="2" t="inlineStr"/>
@@ -1633,7 +1519,6 @@
       <c r="H83" s="2" t="inlineStr"/>
       <c r="I83" s="2" t="inlineStr"/>
       <c r="J83" s="2" t="inlineStr"/>
-      <c r="K83" s="2" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="2" t="inlineStr"/>
@@ -1646,7 +1531,6 @@
       <c r="H84" s="2" t="inlineStr"/>
       <c r="I84" s="2" t="inlineStr"/>
       <c r="J84" s="2" t="inlineStr"/>
-      <c r="K84" s="2" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="2" t="inlineStr"/>
@@ -1659,7 +1543,6 @@
       <c r="H85" s="2" t="inlineStr"/>
       <c r="I85" s="2" t="inlineStr"/>
       <c r="J85" s="2" t="inlineStr"/>
-      <c r="K85" s="2" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="2" t="inlineStr"/>
@@ -1672,7 +1555,6 @@
       <c r="H86" s="2" t="inlineStr"/>
       <c r="I86" s="2" t="inlineStr"/>
       <c r="J86" s="2" t="inlineStr"/>
-      <c r="K86" s="2" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="2" t="inlineStr"/>
@@ -1685,7 +1567,6 @@
       <c r="H87" s="2" t="inlineStr"/>
       <c r="I87" s="2" t="inlineStr"/>
       <c r="J87" s="2" t="inlineStr"/>
-      <c r="K87" s="2" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="2" t="inlineStr"/>
@@ -1698,7 +1579,6 @@
       <c r="H88" s="2" t="inlineStr"/>
       <c r="I88" s="2" t="inlineStr"/>
       <c r="J88" s="2" t="inlineStr"/>
-      <c r="K88" s="2" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="2" t="inlineStr"/>
@@ -1711,7 +1591,6 @@
       <c r="H89" s="2" t="inlineStr"/>
       <c r="I89" s="2" t="inlineStr"/>
       <c r="J89" s="2" t="inlineStr"/>
-      <c r="K89" s="2" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="2" t="inlineStr"/>
@@ -1724,7 +1603,6 @@
       <c r="H90" s="2" t="inlineStr"/>
       <c r="I90" s="2" t="inlineStr"/>
       <c r="J90" s="2" t="inlineStr"/>
-      <c r="K90" s="2" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="2" t="inlineStr"/>
@@ -1737,7 +1615,6 @@
       <c r="H91" s="2" t="inlineStr"/>
       <c r="I91" s="2" t="inlineStr"/>
       <c r="J91" s="2" t="inlineStr"/>
-      <c r="K91" s="2" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="2" t="inlineStr"/>
@@ -1750,7 +1627,6 @@
       <c r="H92" s="2" t="inlineStr"/>
       <c r="I92" s="2" t="inlineStr"/>
       <c r="J92" s="2" t="inlineStr"/>
-      <c r="K92" s="2" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="2" t="inlineStr"/>
@@ -1763,35 +1639,32 @@
       <c r="H93" s="2" t="inlineStr"/>
       <c r="I93" s="2" t="inlineStr"/>
       <c r="J93" s="2" t="inlineStr"/>
-      <c r="K93" s="2" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="2" t="inlineStr"/>
       <c r="B94" s="2" t="inlineStr"/>
       <c r="C94" s="2" t="inlineStr"/>
-      <c r="D94" s="2" t="n">
-        <v>120</v>
-      </c>
+      <c r="D94" s="2" t="inlineStr"/>
       <c r="E94" s="2" t="inlineStr"/>
       <c r="F94" s="2" t="inlineStr"/>
       <c r="G94" s="2" t="inlineStr"/>
       <c r="H94" s="2" t="inlineStr"/>
       <c r="I94" s="2" t="inlineStr"/>
       <c r="J94" s="2" t="inlineStr"/>
-      <c r="K94" s="2" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="2" t="inlineStr"/>
       <c r="B95" s="2" t="inlineStr"/>
       <c r="C95" s="2" t="inlineStr"/>
-      <c r="D95" s="2" t="inlineStr"/>
+      <c r="D95" s="2" t="n">
+        <v>120</v>
+      </c>
       <c r="E95" s="2" t="inlineStr"/>
       <c r="F95" s="2" t="inlineStr"/>
       <c r="G95" s="2" t="inlineStr"/>
       <c r="H95" s="2" t="inlineStr"/>
       <c r="I95" s="2" t="inlineStr"/>
       <c r="J95" s="2" t="inlineStr"/>
-      <c r="K95" s="2" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="2" t="inlineStr"/>
@@ -1804,22 +1677,18 @@
       <c r="H96" s="2" t="inlineStr"/>
       <c r="I96" s="2" t="inlineStr"/>
       <c r="J96" s="2" t="inlineStr"/>
-      <c r="K96" s="2" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="2" t="inlineStr"/>
       <c r="B97" s="2" t="inlineStr"/>
       <c r="C97" s="2" t="inlineStr"/>
-      <c r="D97" s="2" t="n">
-        <v>120</v>
-      </c>
+      <c r="D97" s="2" t="inlineStr"/>
       <c r="E97" s="2" t="inlineStr"/>
       <c r="F97" s="2" t="inlineStr"/>
       <c r="G97" s="2" t="inlineStr"/>
       <c r="H97" s="2" t="inlineStr"/>
       <c r="I97" s="2" t="inlineStr"/>
       <c r="J97" s="2" t="inlineStr"/>
-      <c r="K97" s="2" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="2" t="inlineStr"/>
@@ -1834,7 +1703,6 @@
       <c r="H98" s="2" t="inlineStr"/>
       <c r="I98" s="2" t="inlineStr"/>
       <c r="J98" s="2" t="inlineStr"/>
-      <c r="K98" s="2" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="2" t="inlineStr"/>
@@ -1849,20 +1717,20 @@
       <c r="H99" s="2" t="inlineStr"/>
       <c r="I99" s="2" t="inlineStr"/>
       <c r="J99" s="2" t="inlineStr"/>
-      <c r="K99" s="2" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="2" t="inlineStr"/>
       <c r="B100" s="2" t="inlineStr"/>
       <c r="C100" s="2" t="inlineStr"/>
-      <c r="D100" s="2" t="inlineStr"/>
+      <c r="D100" s="2" t="n">
+        <v>120</v>
+      </c>
       <c r="E100" s="2" t="inlineStr"/>
       <c r="F100" s="2" t="inlineStr"/>
       <c r="G100" s="2" t="inlineStr"/>
       <c r="H100" s="2" t="inlineStr"/>
       <c r="I100" s="2" t="inlineStr"/>
       <c r="J100" s="2" t="inlineStr"/>
-      <c r="K100" s="2" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="2" t="inlineStr"/>
@@ -1875,7 +1743,6 @@
       <c r="H101" s="2" t="inlineStr"/>
       <c r="I101" s="2" t="inlineStr"/>
       <c r="J101" s="2" t="inlineStr"/>
-      <c r="K101" s="2" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="2" t="inlineStr"/>
@@ -1888,7 +1755,6 @@
       <c r="H102" s="2" t="inlineStr"/>
       <c r="I102" s="2" t="inlineStr"/>
       <c r="J102" s="2" t="inlineStr"/>
-      <c r="K102" s="2" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="2" t="inlineStr"/>
@@ -1901,7 +1767,6 @@
       <c r="H103" s="2" t="inlineStr"/>
       <c r="I103" s="2" t="inlineStr"/>
       <c r="J103" s="2" t="inlineStr"/>
-      <c r="K103" s="2" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="2" t="inlineStr"/>
@@ -1914,35 +1779,32 @@
       <c r="H104" s="2" t="inlineStr"/>
       <c r="I104" s="2" t="inlineStr"/>
       <c r="J104" s="2" t="inlineStr"/>
-      <c r="K104" s="2" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="2" t="inlineStr"/>
       <c r="B105" s="2" t="inlineStr"/>
       <c r="C105" s="2" t="inlineStr"/>
-      <c r="D105" s="2" t="n">
-        <v>120</v>
-      </c>
+      <c r="D105" s="2" t="inlineStr"/>
       <c r="E105" s="2" t="inlineStr"/>
       <c r="F105" s="2" t="inlineStr"/>
       <c r="G105" s="2" t="inlineStr"/>
       <c r="H105" s="2" t="inlineStr"/>
       <c r="I105" s="2" t="inlineStr"/>
       <c r="J105" s="2" t="inlineStr"/>
-      <c r="K105" s="2" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="2" t="inlineStr"/>
       <c r="B106" s="2" t="inlineStr"/>
       <c r="C106" s="2" t="inlineStr"/>
-      <c r="D106" s="2" t="inlineStr"/>
+      <c r="D106" s="2" t="n">
+        <v>120</v>
+      </c>
       <c r="E106" s="2" t="inlineStr"/>
       <c r="F106" s="2" t="inlineStr"/>
       <c r="G106" s="2" t="inlineStr"/>
       <c r="H106" s="2" t="inlineStr"/>
       <c r="I106" s="2" t="inlineStr"/>
       <c r="J106" s="2" t="inlineStr"/>
-      <c r="K106" s="2" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="2" t="inlineStr"/>
@@ -1955,7 +1817,6 @@
       <c r="H107" s="2" t="inlineStr"/>
       <c r="I107" s="2" t="inlineStr"/>
       <c r="J107" s="2" t="inlineStr"/>
-      <c r="K107" s="2" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="2" t="inlineStr"/>
@@ -1968,7 +1829,6 @@
       <c r="H108" s="2" t="inlineStr"/>
       <c r="I108" s="2" t="inlineStr"/>
       <c r="J108" s="2" t="inlineStr"/>
-      <c r="K108" s="2" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="2" t="inlineStr"/>
@@ -1981,7 +1841,6 @@
       <c r="H109" s="2" t="inlineStr"/>
       <c r="I109" s="2" t="inlineStr"/>
       <c r="J109" s="2" t="inlineStr"/>
-      <c r="K109" s="2" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="2" t="inlineStr"/>
@@ -1994,59 +1853,62 @@
       <c r="H110" s="2" t="inlineStr"/>
       <c r="I110" s="2" t="inlineStr"/>
       <c r="J110" s="2" t="inlineStr"/>
-      <c r="K110" s="2" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="2" t="inlineStr"/>
       <c r="B111" s="2" t="inlineStr"/>
       <c r="C111" s="2" t="inlineStr"/>
-      <c r="D111" s="2" t="inlineStr"/>
+      <c r="D111" s="2" t="n">
+        <v>120</v>
+      </c>
       <c r="E111" s="2" t="inlineStr"/>
       <c r="F111" s="2" t="inlineStr"/>
       <c r="G111" s="2" t="inlineStr"/>
       <c r="H111" s="2" t="inlineStr"/>
       <c r="I111" s="2" t="inlineStr"/>
       <c r="J111" s="2" t="inlineStr"/>
-      <c r="K111" s="2" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="2" t="inlineStr"/>
       <c r="B112" s="2" t="inlineStr"/>
       <c r="C112" s="2" t="inlineStr"/>
-      <c r="D112" s="2" t="inlineStr"/>
+      <c r="D112" s="2" t="n">
+        <v>120</v>
+      </c>
       <c r="E112" s="2" t="inlineStr"/>
       <c r="F112" s="2" t="inlineStr"/>
       <c r="G112" s="2" t="inlineStr"/>
       <c r="H112" s="2" t="inlineStr"/>
       <c r="I112" s="2" t="inlineStr"/>
       <c r="J112" s="2" t="inlineStr"/>
-      <c r="K112" s="2" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="2" t="inlineStr"/>
       <c r="B113" s="2" t="inlineStr"/>
       <c r="C113" s="2" t="inlineStr"/>
-      <c r="D113" s="2" t="inlineStr"/>
+      <c r="D113" s="2" t="n">
+        <v>120</v>
+      </c>
       <c r="E113" s="2" t="inlineStr"/>
       <c r="F113" s="2" t="inlineStr"/>
       <c r="G113" s="2" t="inlineStr"/>
       <c r="H113" s="2" t="inlineStr"/>
       <c r="I113" s="2" t="inlineStr"/>
       <c r="J113" s="2" t="inlineStr"/>
-      <c r="K113" s="2" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="2" t="inlineStr"/>
       <c r="B114" s="2" t="inlineStr"/>
       <c r="C114" s="2" t="inlineStr"/>
-      <c r="D114" s="2" t="inlineStr"/>
+      <c r="D114" s="2" t="n">
+        <v>120</v>
+      </c>
       <c r="E114" s="2" t="inlineStr"/>
       <c r="F114" s="2" t="inlineStr"/>
       <c r="G114" s="2" t="inlineStr"/>
       <c r="H114" s="2" t="inlineStr"/>
       <c r="I114" s="2" t="inlineStr"/>
       <c r="J114" s="2" t="inlineStr"/>
-      <c r="K114" s="2" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="2" t="inlineStr"/>
@@ -2059,7 +1921,2136 @@
       <c r="H115" s="2" t="inlineStr"/>
       <c r="I115" s="2" t="inlineStr"/>
       <c r="J115" s="2" t="inlineStr"/>
-      <c r="K115" s="2" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="inlineStr"/>
+      <c r="B116" s="2" t="inlineStr"/>
+      <c r="C116" s="2" t="inlineStr"/>
+      <c r="D116" s="2" t="inlineStr"/>
+      <c r="E116" s="2" t="inlineStr"/>
+      <c r="F116" s="2" t="inlineStr"/>
+      <c r="G116" s="2" t="inlineStr"/>
+      <c r="H116" s="2" t="inlineStr"/>
+      <c r="I116" s="2" t="inlineStr"/>
+      <c r="J116" s="2" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="inlineStr"/>
+      <c r="B117" s="2" t="inlineStr"/>
+      <c r="C117" s="2" t="inlineStr"/>
+      <c r="D117" s="2" t="inlineStr"/>
+      <c r="E117" s="2" t="inlineStr"/>
+      <c r="F117" s="2" t="inlineStr"/>
+      <c r="G117" s="2" t="inlineStr"/>
+      <c r="H117" s="2" t="inlineStr"/>
+      <c r="I117" s="2" t="inlineStr"/>
+      <c r="J117" s="2" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="inlineStr"/>
+      <c r="B118" s="2" t="inlineStr"/>
+      <c r="C118" s="2" t="inlineStr"/>
+      <c r="D118" s="2" t="inlineStr"/>
+      <c r="E118" s="2" t="inlineStr"/>
+      <c r="F118" s="2" t="inlineStr"/>
+      <c r="G118" s="2" t="inlineStr"/>
+      <c r="H118" s="2" t="inlineStr"/>
+      <c r="I118" s="2" t="inlineStr"/>
+      <c r="J118" s="2" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="inlineStr"/>
+      <c r="B119" s="2" t="inlineStr"/>
+      <c r="C119" s="2" t="inlineStr"/>
+      <c r="D119" s="2" t="inlineStr"/>
+      <c r="E119" s="2" t="inlineStr"/>
+      <c r="F119" s="2" t="inlineStr"/>
+      <c r="G119" s="2" t="inlineStr"/>
+      <c r="H119" s="2" t="inlineStr"/>
+      <c r="I119" s="2" t="inlineStr"/>
+      <c r="J119" s="2" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="inlineStr"/>
+      <c r="B120" s="2" t="inlineStr"/>
+      <c r="C120" s="2" t="inlineStr"/>
+      <c r="D120" s="2" t="inlineStr"/>
+      <c r="E120" s="2" t="inlineStr"/>
+      <c r="F120" s="2" t="inlineStr"/>
+      <c r="G120" s="2" t="inlineStr"/>
+      <c r="H120" s="2" t="inlineStr"/>
+      <c r="I120" s="2" t="inlineStr"/>
+      <c r="J120" s="2" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="inlineStr"/>
+      <c r="B121" s="2" t="inlineStr"/>
+      <c r="C121" s="2" t="inlineStr"/>
+      <c r="D121" s="2" t="inlineStr"/>
+      <c r="E121" s="2" t="inlineStr"/>
+      <c r="F121" s="2" t="inlineStr"/>
+      <c r="G121" s="2" t="inlineStr"/>
+      <c r="H121" s="2" t="inlineStr"/>
+      <c r="I121" s="2" t="inlineStr"/>
+      <c r="J121" s="2" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="inlineStr"/>
+      <c r="B122" s="2" t="inlineStr"/>
+      <c r="C122" s="2" t="inlineStr"/>
+      <c r="D122" s="2" t="inlineStr"/>
+      <c r="E122" s="2" t="inlineStr"/>
+      <c r="F122" s="2" t="inlineStr"/>
+      <c r="G122" s="2" t="inlineStr"/>
+      <c r="H122" s="2" t="inlineStr"/>
+      <c r="I122" s="2" t="inlineStr"/>
+      <c r="J122" s="2" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="inlineStr"/>
+      <c r="B123" s="2" t="inlineStr"/>
+      <c r="C123" s="2" t="inlineStr"/>
+      <c r="D123" s="2" t="inlineStr"/>
+      <c r="E123" s="2" t="inlineStr"/>
+      <c r="F123" s="2" t="inlineStr"/>
+      <c r="G123" s="2" t="inlineStr"/>
+      <c r="H123" s="2" t="inlineStr"/>
+      <c r="I123" s="2" t="inlineStr"/>
+      <c r="J123" s="2" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="inlineStr"/>
+      <c r="B124" s="2" t="inlineStr"/>
+      <c r="C124" s="2" t="inlineStr"/>
+      <c r="D124" s="2" t="inlineStr"/>
+      <c r="E124" s="2" t="inlineStr"/>
+      <c r="F124" s="2" t="inlineStr"/>
+      <c r="G124" s="2" t="inlineStr"/>
+      <c r="H124" s="2" t="inlineStr"/>
+      <c r="I124" s="2" t="inlineStr"/>
+      <c r="J124" s="2" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="inlineStr"/>
+      <c r="B125" s="2" t="inlineStr"/>
+      <c r="C125" s="2" t="inlineStr"/>
+      <c r="D125" s="2" t="inlineStr"/>
+      <c r="E125" s="2" t="inlineStr"/>
+      <c r="F125" s="2" t="inlineStr"/>
+      <c r="G125" s="2" t="inlineStr"/>
+      <c r="H125" s="2" t="inlineStr"/>
+      <c r="I125" s="2" t="inlineStr"/>
+      <c r="J125" s="2" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="inlineStr"/>
+      <c r="B126" s="2" t="inlineStr"/>
+      <c r="C126" s="2" t="inlineStr"/>
+      <c r="D126" s="2" t="inlineStr"/>
+      <c r="E126" s="2" t="inlineStr"/>
+      <c r="F126" s="2" t="inlineStr"/>
+      <c r="G126" s="2" t="inlineStr"/>
+      <c r="H126" s="2" t="inlineStr"/>
+      <c r="I126" s="2" t="inlineStr"/>
+      <c r="J126" s="2" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="inlineStr"/>
+      <c r="B127" s="2" t="inlineStr"/>
+      <c r="C127" s="2" t="inlineStr"/>
+      <c r="D127" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="E127" s="2" t="inlineStr"/>
+      <c r="F127" s="2" t="inlineStr"/>
+      <c r="G127" s="2" t="inlineStr"/>
+      <c r="H127" s="2" t="inlineStr"/>
+      <c r="I127" s="2" t="inlineStr"/>
+      <c r="J127" s="2" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="inlineStr"/>
+      <c r="B128" s="2" t="inlineStr"/>
+      <c r="C128" s="2" t="inlineStr"/>
+      <c r="D128" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="E128" s="2" t="inlineStr"/>
+      <c r="F128" s="2" t="inlineStr"/>
+      <c r="G128" s="2" t="inlineStr"/>
+      <c r="H128" s="2" t="inlineStr"/>
+      <c r="I128" s="2" t="inlineStr"/>
+      <c r="J128" s="2" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="inlineStr"/>
+      <c r="B129" s="2" t="inlineStr"/>
+      <c r="C129" s="2" t="inlineStr"/>
+      <c r="D129" s="2" t="inlineStr"/>
+      <c r="E129" s="2" t="inlineStr"/>
+      <c r="F129" s="2" t="inlineStr"/>
+      <c r="G129" s="2" t="inlineStr"/>
+      <c r="H129" s="2" t="inlineStr"/>
+      <c r="I129" s="2" t="inlineStr"/>
+      <c r="J129" s="2" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="inlineStr"/>
+      <c r="B130" s="2" t="inlineStr"/>
+      <c r="C130" s="2" t="inlineStr"/>
+      <c r="D130" s="2" t="inlineStr"/>
+      <c r="E130" s="2" t="inlineStr"/>
+      <c r="F130" s="2" t="inlineStr"/>
+      <c r="G130" s="2" t="inlineStr"/>
+      <c r="H130" s="2" t="inlineStr"/>
+      <c r="I130" s="2" t="inlineStr"/>
+      <c r="J130" s="2" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="inlineStr"/>
+      <c r="B131" s="2" t="inlineStr"/>
+      <c r="C131" s="2" t="inlineStr"/>
+      <c r="D131" s="2" t="inlineStr"/>
+      <c r="E131" s="2" t="inlineStr"/>
+      <c r="F131" s="2" t="inlineStr"/>
+      <c r="G131" s="2" t="inlineStr"/>
+      <c r="H131" s="2" t="inlineStr"/>
+      <c r="I131" s="2" t="inlineStr"/>
+      <c r="J131" s="2" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="inlineStr"/>
+      <c r="B132" s="2" t="inlineStr"/>
+      <c r="C132" s="2" t="inlineStr"/>
+      <c r="D132" s="2" t="inlineStr"/>
+      <c r="E132" s="2" t="inlineStr"/>
+      <c r="F132" s="2" t="inlineStr"/>
+      <c r="G132" s="2" t="inlineStr"/>
+      <c r="H132" s="2" t="inlineStr"/>
+      <c r="I132" s="2" t="inlineStr"/>
+      <c r="J132" s="2" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="inlineStr"/>
+      <c r="B133" s="2" t="inlineStr"/>
+      <c r="C133" s="2" t="inlineStr"/>
+      <c r="D133" s="2" t="inlineStr"/>
+      <c r="E133" s="2" t="inlineStr"/>
+      <c r="F133" s="2" t="inlineStr"/>
+      <c r="G133" s="2" t="inlineStr"/>
+      <c r="H133" s="2" t="inlineStr"/>
+      <c r="I133" s="2" t="inlineStr"/>
+      <c r="J133" s="2" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="inlineStr"/>
+      <c r="B134" s="2" t="inlineStr"/>
+      <c r="C134" s="2" t="inlineStr"/>
+      <c r="D134" s="2" t="inlineStr"/>
+      <c r="E134" s="2" t="inlineStr"/>
+      <c r="F134" s="2" t="inlineStr"/>
+      <c r="G134" s="2" t="inlineStr"/>
+      <c r="H134" s="2" t="inlineStr"/>
+      <c r="I134" s="2" t="inlineStr"/>
+      <c r="J134" s="2" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="inlineStr"/>
+      <c r="B135" s="2" t="inlineStr"/>
+      <c r="C135" s="2" t="inlineStr"/>
+      <c r="D135" s="2" t="inlineStr"/>
+      <c r="E135" s="2" t="inlineStr"/>
+      <c r="F135" s="2" t="inlineStr"/>
+      <c r="G135" s="2" t="inlineStr"/>
+      <c r="H135" s="2" t="inlineStr"/>
+      <c r="I135" s="2" t="inlineStr"/>
+      <c r="J135" s="2" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="inlineStr"/>
+      <c r="B136" s="2" t="inlineStr"/>
+      <c r="C136" s="2" t="inlineStr"/>
+      <c r="D136" s="2" t="inlineStr"/>
+      <c r="E136" s="2" t="inlineStr"/>
+      <c r="F136" s="2" t="inlineStr"/>
+      <c r="G136" s="2" t="inlineStr"/>
+      <c r="H136" s="2" t="inlineStr"/>
+      <c r="I136" s="2" t="inlineStr"/>
+      <c r="J136" s="2" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="inlineStr"/>
+      <c r="B137" s="2" t="inlineStr"/>
+      <c r="C137" s="2" t="inlineStr"/>
+      <c r="D137" s="2" t="inlineStr"/>
+      <c r="E137" s="2" t="inlineStr"/>
+      <c r="F137" s="2" t="inlineStr"/>
+      <c r="G137" s="2" t="inlineStr"/>
+      <c r="H137" s="2" t="inlineStr"/>
+      <c r="I137" s="2" t="inlineStr"/>
+      <c r="J137" s="2" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="inlineStr"/>
+      <c r="B138" s="2" t="inlineStr"/>
+      <c r="C138" s="2" t="inlineStr"/>
+      <c r="D138" s="2" t="inlineStr"/>
+      <c r="E138" s="2" t="inlineStr"/>
+      <c r="F138" s="2" t="inlineStr"/>
+      <c r="G138" s="2" t="inlineStr"/>
+      <c r="H138" s="2" t="inlineStr"/>
+      <c r="I138" s="2" t="inlineStr"/>
+      <c r="J138" s="2" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="inlineStr"/>
+      <c r="B139" s="2" t="inlineStr"/>
+      <c r="C139" s="2" t="inlineStr"/>
+      <c r="D139" s="2" t="inlineStr"/>
+      <c r="E139" s="2" t="inlineStr"/>
+      <c r="F139" s="2" t="inlineStr"/>
+      <c r="G139" s="2" t="inlineStr"/>
+      <c r="H139" s="2" t="inlineStr"/>
+      <c r="I139" s="2" t="inlineStr"/>
+      <c r="J139" s="2" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="inlineStr"/>
+      <c r="B140" s="2" t="inlineStr"/>
+      <c r="C140" s="2" t="inlineStr"/>
+      <c r="D140" s="2" t="inlineStr"/>
+      <c r="E140" s="2" t="inlineStr"/>
+      <c r="F140" s="2" t="inlineStr"/>
+      <c r="G140" s="2" t="inlineStr"/>
+      <c r="H140" s="2" t="inlineStr"/>
+      <c r="I140" s="2" t="inlineStr"/>
+      <c r="J140" s="2" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="inlineStr"/>
+      <c r="B141" s="2" t="inlineStr"/>
+      <c r="C141" s="2" t="inlineStr"/>
+      <c r="D141" s="2" t="inlineStr"/>
+      <c r="E141" s="2" t="inlineStr"/>
+      <c r="F141" s="2" t="inlineStr"/>
+      <c r="G141" s="2" t="inlineStr"/>
+      <c r="H141" s="2" t="inlineStr"/>
+      <c r="I141" s="2" t="inlineStr"/>
+      <c r="J141" s="2" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="inlineStr"/>
+      <c r="B142" s="2" t="inlineStr"/>
+      <c r="C142" s="2" t="inlineStr"/>
+      <c r="D142" s="2" t="inlineStr"/>
+      <c r="E142" s="2" t="inlineStr"/>
+      <c r="F142" s="2" t="inlineStr"/>
+      <c r="G142" s="2" t="inlineStr"/>
+      <c r="H142" s="2" t="inlineStr"/>
+      <c r="I142" s="2" t="inlineStr"/>
+      <c r="J142" s="2" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="inlineStr"/>
+      <c r="B143" s="2" t="inlineStr"/>
+      <c r="C143" s="2" t="inlineStr"/>
+      <c r="D143" s="2" t="inlineStr"/>
+      <c r="E143" s="2" t="inlineStr"/>
+      <c r="F143" s="2" t="inlineStr"/>
+      <c r="G143" s="2" t="inlineStr"/>
+      <c r="H143" s="2" t="inlineStr"/>
+      <c r="I143" s="2" t="inlineStr"/>
+      <c r="J143" s="2" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="inlineStr"/>
+      <c r="B144" s="2" t="inlineStr"/>
+      <c r="C144" s="2" t="inlineStr"/>
+      <c r="D144" s="2" t="inlineStr"/>
+      <c r="E144" s="2" t="inlineStr"/>
+      <c r="F144" s="2" t="inlineStr"/>
+      <c r="G144" s="2" t="inlineStr"/>
+      <c r="H144" s="2" t="inlineStr"/>
+      <c r="I144" s="2" t="inlineStr"/>
+      <c r="J144" s="2" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="inlineStr"/>
+      <c r="B145" s="2" t="inlineStr"/>
+      <c r="C145" s="2" t="inlineStr"/>
+      <c r="D145" s="2" t="inlineStr"/>
+      <c r="E145" s="2" t="inlineStr"/>
+      <c r="F145" s="2" t="inlineStr"/>
+      <c r="G145" s="2" t="inlineStr"/>
+      <c r="H145" s="2" t="inlineStr"/>
+      <c r="I145" s="2" t="inlineStr"/>
+      <c r="J145" s="2" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="inlineStr"/>
+      <c r="B146" s="2" t="inlineStr"/>
+      <c r="C146" s="2" t="inlineStr"/>
+      <c r="D146" s="2" t="inlineStr"/>
+      <c r="E146" s="2" t="inlineStr"/>
+      <c r="F146" s="2" t="inlineStr"/>
+      <c r="G146" s="2" t="inlineStr"/>
+      <c r="H146" s="2" t="inlineStr"/>
+      <c r="I146" s="2" t="inlineStr"/>
+      <c r="J146" s="2" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="inlineStr"/>
+      <c r="B147" s="2" t="inlineStr"/>
+      <c r="C147" s="2" t="inlineStr"/>
+      <c r="D147" s="2" t="inlineStr"/>
+      <c r="E147" s="2" t="inlineStr"/>
+      <c r="F147" s="2" t="inlineStr"/>
+      <c r="G147" s="2" t="inlineStr"/>
+      <c r="H147" s="2" t="inlineStr"/>
+      <c r="I147" s="2" t="inlineStr"/>
+      <c r="J147" s="2" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="inlineStr"/>
+      <c r="B148" s="2" t="inlineStr"/>
+      <c r="C148" s="2" t="inlineStr"/>
+      <c r="D148" s="2" t="inlineStr"/>
+      <c r="E148" s="2" t="inlineStr"/>
+      <c r="F148" s="2" t="inlineStr"/>
+      <c r="G148" s="2" t="inlineStr"/>
+      <c r="H148" s="2" t="inlineStr"/>
+      <c r="I148" s="2" t="inlineStr"/>
+      <c r="J148" s="2" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="inlineStr"/>
+      <c r="B149" s="2" t="inlineStr"/>
+      <c r="C149" s="2" t="inlineStr"/>
+      <c r="D149" s="2" t="inlineStr"/>
+      <c r="E149" s="2" t="inlineStr"/>
+      <c r="F149" s="2" t="inlineStr"/>
+      <c r="G149" s="2" t="inlineStr"/>
+      <c r="H149" s="2" t="inlineStr"/>
+      <c r="I149" s="2" t="inlineStr"/>
+      <c r="J149" s="2" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="inlineStr"/>
+      <c r="B150" s="2" t="inlineStr"/>
+      <c r="C150" s="2" t="inlineStr"/>
+      <c r="D150" s="2" t="inlineStr"/>
+      <c r="E150" s="2" t="inlineStr"/>
+      <c r="F150" s="2" t="inlineStr"/>
+      <c r="G150" s="2" t="inlineStr"/>
+      <c r="H150" s="2" t="inlineStr"/>
+      <c r="I150" s="2" t="inlineStr"/>
+      <c r="J150" s="2" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="inlineStr"/>
+      <c r="B151" s="2" t="inlineStr"/>
+      <c r="C151" s="2" t="inlineStr"/>
+      <c r="D151" s="2" t="inlineStr"/>
+      <c r="E151" s="2" t="inlineStr"/>
+      <c r="F151" s="2" t="inlineStr"/>
+      <c r="G151" s="2" t="inlineStr"/>
+      <c r="H151" s="2" t="inlineStr"/>
+      <c r="I151" s="2" t="inlineStr"/>
+      <c r="J151" s="2" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="inlineStr"/>
+      <c r="B152" s="2" t="inlineStr"/>
+      <c r="C152" s="2" t="inlineStr"/>
+      <c r="D152" s="2" t="inlineStr"/>
+      <c r="E152" s="2" t="inlineStr"/>
+      <c r="F152" s="2" t="inlineStr"/>
+      <c r="G152" s="2" t="inlineStr"/>
+      <c r="H152" s="2" t="inlineStr"/>
+      <c r="I152" s="2" t="inlineStr"/>
+      <c r="J152" s="2" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="inlineStr"/>
+      <c r="B153" s="2" t="inlineStr"/>
+      <c r="C153" s="2" t="inlineStr"/>
+      <c r="D153" s="2" t="inlineStr"/>
+      <c r="E153" s="2" t="inlineStr"/>
+      <c r="F153" s="2" t="inlineStr"/>
+      <c r="G153" s="2" t="inlineStr"/>
+      <c r="H153" s="2" t="inlineStr"/>
+      <c r="I153" s="2" t="inlineStr"/>
+      <c r="J153" s="2" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="inlineStr"/>
+      <c r="B154" s="2" t="inlineStr"/>
+      <c r="C154" s="2" t="inlineStr"/>
+      <c r="D154" s="2" t="inlineStr"/>
+      <c r="E154" s="2" t="inlineStr"/>
+      <c r="F154" s="2" t="inlineStr"/>
+      <c r="G154" s="2" t="inlineStr"/>
+      <c r="H154" s="2" t="inlineStr"/>
+      <c r="I154" s="2" t="inlineStr"/>
+      <c r="J154" s="2" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="inlineStr"/>
+      <c r="B155" s="2" t="inlineStr"/>
+      <c r="C155" s="2" t="inlineStr"/>
+      <c r="D155" s="2" t="inlineStr"/>
+      <c r="E155" s="2" t="inlineStr"/>
+      <c r="F155" s="2" t="inlineStr"/>
+      <c r="G155" s="2" t="inlineStr"/>
+      <c r="H155" s="2" t="inlineStr"/>
+      <c r="I155" s="2" t="inlineStr"/>
+      <c r="J155" s="2" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="inlineStr"/>
+      <c r="B156" s="2" t="inlineStr"/>
+      <c r="C156" s="2" t="inlineStr"/>
+      <c r="D156" s="2" t="inlineStr"/>
+      <c r="E156" s="2" t="inlineStr"/>
+      <c r="F156" s="2" t="inlineStr"/>
+      <c r="G156" s="2" t="inlineStr"/>
+      <c r="H156" s="2" t="inlineStr"/>
+      <c r="I156" s="2" t="inlineStr"/>
+      <c r="J156" s="2" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="inlineStr"/>
+      <c r="B157" s="2" t="inlineStr"/>
+      <c r="C157" s="2" t="inlineStr"/>
+      <c r="D157" s="2" t="inlineStr"/>
+      <c r="E157" s="2" t="inlineStr"/>
+      <c r="F157" s="2" t="inlineStr"/>
+      <c r="G157" s="2" t="inlineStr"/>
+      <c r="H157" s="2" t="inlineStr"/>
+      <c r="I157" s="2" t="inlineStr"/>
+      <c r="J157" s="2" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="inlineStr"/>
+      <c r="B158" s="2" t="inlineStr"/>
+      <c r="C158" s="2" t="inlineStr"/>
+      <c r="D158" s="2" t="inlineStr"/>
+      <c r="E158" s="2" t="inlineStr"/>
+      <c r="F158" s="2" t="inlineStr"/>
+      <c r="G158" s="2" t="inlineStr"/>
+      <c r="H158" s="2" t="inlineStr"/>
+      <c r="I158" s="2" t="inlineStr"/>
+      <c r="J158" s="2" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="inlineStr"/>
+      <c r="B159" s="2" t="inlineStr"/>
+      <c r="C159" s="2" t="inlineStr"/>
+      <c r="D159" s="2" t="inlineStr"/>
+      <c r="E159" s="2" t="inlineStr"/>
+      <c r="F159" s="2" t="inlineStr"/>
+      <c r="G159" s="2" t="inlineStr"/>
+      <c r="H159" s="2" t="inlineStr"/>
+      <c r="I159" s="2" t="inlineStr"/>
+      <c r="J159" s="2" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="inlineStr"/>
+      <c r="B160" s="2" t="inlineStr"/>
+      <c r="C160" s="2" t="inlineStr"/>
+      <c r="D160" s="2" t="inlineStr"/>
+      <c r="E160" s="2" t="inlineStr"/>
+      <c r="F160" s="2" t="inlineStr"/>
+      <c r="G160" s="2" t="inlineStr"/>
+      <c r="H160" s="2" t="inlineStr"/>
+      <c r="I160" s="2" t="inlineStr"/>
+      <c r="J160" s="2" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="inlineStr"/>
+      <c r="B161" s="2" t="inlineStr"/>
+      <c r="C161" s="2" t="inlineStr"/>
+      <c r="D161" s="2" t="inlineStr"/>
+      <c r="E161" s="2" t="inlineStr"/>
+      <c r="F161" s="2" t="inlineStr"/>
+      <c r="G161" s="2" t="inlineStr"/>
+      <c r="H161" s="2" t="inlineStr"/>
+      <c r="I161" s="2" t="inlineStr"/>
+      <c r="J161" s="2" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="inlineStr"/>
+      <c r="B162" s="2" t="inlineStr"/>
+      <c r="C162" s="2" t="inlineStr"/>
+      <c r="D162" s="2" t="inlineStr"/>
+      <c r="E162" s="2" t="inlineStr"/>
+      <c r="F162" s="2" t="inlineStr"/>
+      <c r="G162" s="2" t="inlineStr"/>
+      <c r="H162" s="2" t="inlineStr"/>
+      <c r="I162" s="2" t="inlineStr"/>
+      <c r="J162" s="2" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="inlineStr"/>
+      <c r="B163" s="2" t="inlineStr"/>
+      <c r="C163" s="2" t="inlineStr"/>
+      <c r="D163" s="2" t="inlineStr"/>
+      <c r="E163" s="2" t="inlineStr"/>
+      <c r="F163" s="2" t="inlineStr"/>
+      <c r="G163" s="2" t="inlineStr"/>
+      <c r="H163" s="2" t="inlineStr"/>
+      <c r="I163" s="2" t="inlineStr"/>
+      <c r="J163" s="2" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="inlineStr"/>
+      <c r="B164" s="2" t="inlineStr"/>
+      <c r="C164" s="2" t="inlineStr"/>
+      <c r="D164" s="2" t="inlineStr"/>
+      <c r="E164" s="2" t="inlineStr"/>
+      <c r="F164" s="2" t="inlineStr"/>
+      <c r="G164" s="2" t="inlineStr"/>
+      <c r="H164" s="2" t="inlineStr"/>
+      <c r="I164" s="2" t="inlineStr"/>
+      <c r="J164" s="2" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="inlineStr"/>
+      <c r="B165" s="2" t="inlineStr"/>
+      <c r="C165" s="2" t="inlineStr"/>
+      <c r="D165" s="2" t="inlineStr"/>
+      <c r="E165" s="2" t="inlineStr"/>
+      <c r="F165" s="2" t="inlineStr"/>
+      <c r="G165" s="2" t="inlineStr"/>
+      <c r="H165" s="2" t="inlineStr"/>
+      <c r="I165" s="2" t="inlineStr"/>
+      <c r="J165" s="2" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="inlineStr"/>
+      <c r="B166" s="2" t="inlineStr"/>
+      <c r="C166" s="2" t="inlineStr"/>
+      <c r="D166" s="2" t="inlineStr"/>
+      <c r="E166" s="2" t="inlineStr"/>
+      <c r="F166" s="2" t="inlineStr"/>
+      <c r="G166" s="2" t="inlineStr"/>
+      <c r="H166" s="2" t="inlineStr"/>
+      <c r="I166" s="2" t="inlineStr"/>
+      <c r="J166" s="2" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="inlineStr"/>
+      <c r="B167" s="2" t="inlineStr"/>
+      <c r="C167" s="2" t="inlineStr"/>
+      <c r="D167" s="2" t="inlineStr"/>
+      <c r="E167" s="2" t="inlineStr"/>
+      <c r="F167" s="2" t="inlineStr"/>
+      <c r="G167" s="2" t="inlineStr"/>
+      <c r="H167" s="2" t="inlineStr"/>
+      <c r="I167" s="2" t="inlineStr"/>
+      <c r="J167" s="2" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="inlineStr"/>
+      <c r="B168" s="2" t="inlineStr"/>
+      <c r="C168" s="2" t="inlineStr"/>
+      <c r="D168" s="2" t="inlineStr"/>
+      <c r="E168" s="2" t="inlineStr"/>
+      <c r="F168" s="2" t="inlineStr"/>
+      <c r="G168" s="2" t="inlineStr"/>
+      <c r="H168" s="2" t="inlineStr"/>
+      <c r="I168" s="2" t="inlineStr"/>
+      <c r="J168" s="2" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="inlineStr"/>
+      <c r="B169" s="2" t="inlineStr"/>
+      <c r="C169" s="2" t="inlineStr"/>
+      <c r="D169" s="2" t="inlineStr"/>
+      <c r="E169" s="2" t="inlineStr"/>
+      <c r="F169" s="2" t="inlineStr"/>
+      <c r="G169" s="2" t="inlineStr"/>
+      <c r="H169" s="2" t="inlineStr"/>
+      <c r="I169" s="2" t="inlineStr"/>
+      <c r="J169" s="2" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="inlineStr"/>
+      <c r="B170" s="2" t="inlineStr"/>
+      <c r="C170" s="2" t="inlineStr"/>
+      <c r="D170" s="2" t="inlineStr"/>
+      <c r="E170" s="2" t="inlineStr"/>
+      <c r="F170" s="2" t="inlineStr"/>
+      <c r="G170" s="2" t="inlineStr"/>
+      <c r="H170" s="2" t="inlineStr"/>
+      <c r="I170" s="2" t="inlineStr"/>
+      <c r="J170" s="2" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="inlineStr"/>
+      <c r="B171" s="2" t="inlineStr"/>
+      <c r="C171" s="2" t="inlineStr"/>
+      <c r="D171" s="2" t="inlineStr"/>
+      <c r="E171" s="2" t="inlineStr"/>
+      <c r="F171" s="2" t="inlineStr"/>
+      <c r="G171" s="2" t="inlineStr"/>
+      <c r="H171" s="2" t="inlineStr"/>
+      <c r="I171" s="2" t="inlineStr"/>
+      <c r="J171" s="2" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="inlineStr"/>
+      <c r="B172" s="2" t="inlineStr"/>
+      <c r="C172" s="2" t="inlineStr"/>
+      <c r="D172" s="2" t="inlineStr"/>
+      <c r="E172" s="2" t="inlineStr"/>
+      <c r="F172" s="2" t="inlineStr"/>
+      <c r="G172" s="2" t="inlineStr"/>
+      <c r="H172" s="2" t="inlineStr"/>
+      <c r="I172" s="2" t="inlineStr"/>
+      <c r="J172" s="2" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="inlineStr"/>
+      <c r="B173" s="2" t="inlineStr"/>
+      <c r="C173" s="2" t="inlineStr"/>
+      <c r="D173" s="2" t="inlineStr"/>
+      <c r="E173" s="2" t="inlineStr"/>
+      <c r="F173" s="2" t="inlineStr"/>
+      <c r="G173" s="2" t="inlineStr"/>
+      <c r="H173" s="2" t="inlineStr"/>
+      <c r="I173" s="2" t="inlineStr"/>
+      <c r="J173" s="2" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="inlineStr"/>
+      <c r="B174" s="2" t="inlineStr"/>
+      <c r="C174" s="2" t="inlineStr"/>
+      <c r="D174" s="2" t="inlineStr"/>
+      <c r="E174" s="2" t="inlineStr"/>
+      <c r="F174" s="2" t="inlineStr"/>
+      <c r="G174" s="2" t="inlineStr"/>
+      <c r="H174" s="2" t="inlineStr"/>
+      <c r="I174" s="2" t="inlineStr"/>
+      <c r="J174" s="2" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="inlineStr"/>
+      <c r="B175" s="2" t="inlineStr"/>
+      <c r="C175" s="2" t="inlineStr"/>
+      <c r="D175" s="2" t="inlineStr"/>
+      <c r="E175" s="2" t="inlineStr"/>
+      <c r="F175" s="2" t="inlineStr"/>
+      <c r="G175" s="2" t="inlineStr"/>
+      <c r="H175" s="2" t="inlineStr"/>
+      <c r="I175" s="2" t="inlineStr"/>
+      <c r="J175" s="2" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="inlineStr"/>
+      <c r="B176" s="2" t="inlineStr"/>
+      <c r="C176" s="2" t="inlineStr"/>
+      <c r="D176" s="2" t="inlineStr"/>
+      <c r="E176" s="2" t="inlineStr"/>
+      <c r="F176" s="2" t="inlineStr"/>
+      <c r="G176" s="2" t="inlineStr"/>
+      <c r="H176" s="2" t="inlineStr"/>
+      <c r="I176" s="2" t="inlineStr"/>
+      <c r="J176" s="2" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="inlineStr"/>
+      <c r="B177" s="2" t="inlineStr"/>
+      <c r="C177" s="2" t="inlineStr"/>
+      <c r="D177" s="2" t="inlineStr"/>
+      <c r="E177" s="2" t="inlineStr"/>
+      <c r="F177" s="2" t="inlineStr"/>
+      <c r="G177" s="2" t="inlineStr"/>
+      <c r="H177" s="2" t="inlineStr"/>
+      <c r="I177" s="2" t="inlineStr"/>
+      <c r="J177" s="2" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="inlineStr"/>
+      <c r="B178" s="2" t="inlineStr"/>
+      <c r="C178" s="2" t="inlineStr"/>
+      <c r="D178" s="2" t="inlineStr"/>
+      <c r="E178" s="2" t="inlineStr"/>
+      <c r="F178" s="2" t="inlineStr"/>
+      <c r="G178" s="2" t="inlineStr"/>
+      <c r="H178" s="2" t="inlineStr"/>
+      <c r="I178" s="2" t="inlineStr"/>
+      <c r="J178" s="2" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="inlineStr"/>
+      <c r="B179" s="2" t="inlineStr"/>
+      <c r="C179" s="2" t="inlineStr"/>
+      <c r="D179" s="2" t="inlineStr"/>
+      <c r="E179" s="2" t="inlineStr"/>
+      <c r="F179" s="2" t="inlineStr"/>
+      <c r="G179" s="2" t="inlineStr"/>
+      <c r="H179" s="2" t="inlineStr"/>
+      <c r="I179" s="2" t="inlineStr"/>
+      <c r="J179" s="2" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="inlineStr"/>
+      <c r="B180" s="2" t="inlineStr"/>
+      <c r="C180" s="2" t="inlineStr"/>
+      <c r="D180" s="2" t="inlineStr"/>
+      <c r="E180" s="2" t="inlineStr"/>
+      <c r="F180" s="2" t="inlineStr"/>
+      <c r="G180" s="2" t="inlineStr"/>
+      <c r="H180" s="2" t="inlineStr"/>
+      <c r="I180" s="2" t="inlineStr"/>
+      <c r="J180" s="2" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="inlineStr"/>
+      <c r="B181" s="2" t="inlineStr"/>
+      <c r="C181" s="2" t="inlineStr"/>
+      <c r="D181" s="2" t="inlineStr"/>
+      <c r="E181" s="2" t="inlineStr"/>
+      <c r="F181" s="2" t="inlineStr"/>
+      <c r="G181" s="2" t="inlineStr"/>
+      <c r="H181" s="2" t="inlineStr"/>
+      <c r="I181" s="2" t="inlineStr"/>
+      <c r="J181" s="2" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="inlineStr"/>
+      <c r="B182" s="2" t="inlineStr"/>
+      <c r="C182" s="2" t="inlineStr"/>
+      <c r="D182" s="2" t="inlineStr"/>
+      <c r="E182" s="2" t="inlineStr"/>
+      <c r="F182" s="2" t="inlineStr"/>
+      <c r="G182" s="2" t="inlineStr"/>
+      <c r="H182" s="2" t="inlineStr"/>
+      <c r="I182" s="2" t="inlineStr"/>
+      <c r="J182" s="2" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="inlineStr"/>
+      <c r="B183" s="2" t="inlineStr"/>
+      <c r="C183" s="2" t="inlineStr"/>
+      <c r="D183" s="2" t="inlineStr"/>
+      <c r="E183" s="2" t="inlineStr"/>
+      <c r="F183" s="2" t="inlineStr"/>
+      <c r="G183" s="2" t="inlineStr"/>
+      <c r="H183" s="2" t="inlineStr"/>
+      <c r="I183" s="2" t="inlineStr"/>
+      <c r="J183" s="2" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="inlineStr"/>
+      <c r="B184" s="2" t="inlineStr"/>
+      <c r="C184" s="2" t="inlineStr"/>
+      <c r="D184" s="2" t="inlineStr"/>
+      <c r="E184" s="2" t="inlineStr"/>
+      <c r="F184" s="2" t="inlineStr"/>
+      <c r="G184" s="2" t="inlineStr"/>
+      <c r="H184" s="2" t="inlineStr"/>
+      <c r="I184" s="2" t="inlineStr"/>
+      <c r="J184" s="2" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="inlineStr"/>
+      <c r="B185" s="2" t="inlineStr"/>
+      <c r="C185" s="2" t="inlineStr"/>
+      <c r="D185" s="2" t="inlineStr"/>
+      <c r="E185" s="2" t="inlineStr"/>
+      <c r="F185" s="2" t="inlineStr"/>
+      <c r="G185" s="2" t="inlineStr"/>
+      <c r="H185" s="2" t="inlineStr"/>
+      <c r="I185" s="2" t="inlineStr"/>
+      <c r="J185" s="2" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="inlineStr"/>
+      <c r="B186" s="2" t="inlineStr"/>
+      <c r="C186" s="2" t="inlineStr"/>
+      <c r="D186" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="E186" s="2" t="inlineStr"/>
+      <c r="F186" s="2" t="inlineStr"/>
+      <c r="G186" s="2" t="inlineStr"/>
+      <c r="H186" s="2" t="inlineStr"/>
+      <c r="I186" s="2" t="inlineStr"/>
+      <c r="J186" s="2" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="inlineStr"/>
+      <c r="B187" s="2" t="inlineStr"/>
+      <c r="C187" s="2" t="inlineStr"/>
+      <c r="D187" s="2" t="inlineStr"/>
+      <c r="E187" s="2" t="inlineStr"/>
+      <c r="F187" s="2" t="inlineStr"/>
+      <c r="G187" s="2" t="inlineStr"/>
+      <c r="H187" s="2" t="inlineStr"/>
+      <c r="I187" s="2" t="inlineStr"/>
+      <c r="J187" s="2" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="inlineStr"/>
+      <c r="B188" s="2" t="inlineStr"/>
+      <c r="C188" s="2" t="inlineStr"/>
+      <c r="D188" s="2" t="inlineStr"/>
+      <c r="E188" s="2" t="inlineStr"/>
+      <c r="F188" s="2" t="inlineStr"/>
+      <c r="G188" s="2" t="inlineStr"/>
+      <c r="H188" s="2" t="inlineStr"/>
+      <c r="I188" s="2" t="inlineStr"/>
+      <c r="J188" s="2" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="inlineStr"/>
+      <c r="B189" s="2" t="inlineStr"/>
+      <c r="C189" s="2" t="inlineStr"/>
+      <c r="D189" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="E189" s="2" t="inlineStr"/>
+      <c r="F189" s="2" t="inlineStr"/>
+      <c r="G189" s="2" t="inlineStr"/>
+      <c r="H189" s="2" t="inlineStr"/>
+      <c r="I189" s="2" t="inlineStr"/>
+      <c r="J189" s="2" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="inlineStr"/>
+      <c r="B190" s="2" t="inlineStr"/>
+      <c r="C190" s="2" t="inlineStr"/>
+      <c r="D190" s="2" t="inlineStr"/>
+      <c r="E190" s="2" t="inlineStr"/>
+      <c r="F190" s="2" t="inlineStr"/>
+      <c r="G190" s="2" t="inlineStr"/>
+      <c r="H190" s="2" t="inlineStr"/>
+      <c r="I190" s="2" t="inlineStr"/>
+      <c r="J190" s="2" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="inlineStr"/>
+      <c r="B191" s="2" t="inlineStr"/>
+      <c r="C191" s="2" t="inlineStr"/>
+      <c r="D191" s="2" t="inlineStr"/>
+      <c r="E191" s="2" t="inlineStr"/>
+      <c r="F191" s="2" t="inlineStr"/>
+      <c r="G191" s="2" t="inlineStr"/>
+      <c r="H191" s="2" t="inlineStr"/>
+      <c r="I191" s="2" t="inlineStr"/>
+      <c r="J191" s="2" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="inlineStr"/>
+      <c r="B192" s="2" t="inlineStr"/>
+      <c r="C192" s="2" t="inlineStr"/>
+      <c r="D192" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="E192" s="2" t="inlineStr"/>
+      <c r="F192" s="2" t="inlineStr"/>
+      <c r="G192" s="2" t="inlineStr"/>
+      <c r="H192" s="2" t="inlineStr"/>
+      <c r="I192" s="2" t="inlineStr"/>
+      <c r="J192" s="2" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="inlineStr"/>
+      <c r="B193" s="2" t="inlineStr"/>
+      <c r="C193" s="2" t="inlineStr"/>
+      <c r="D193" s="2" t="inlineStr"/>
+      <c r="E193" s="2" t="inlineStr"/>
+      <c r="F193" s="2" t="inlineStr"/>
+      <c r="G193" s="2" t="inlineStr"/>
+      <c r="H193" s="2" t="inlineStr"/>
+      <c r="I193" s="2" t="inlineStr"/>
+      <c r="J193" s="2" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="inlineStr"/>
+      <c r="B194" s="2" t="inlineStr"/>
+      <c r="C194" s="2" t="inlineStr"/>
+      <c r="D194" s="2" t="inlineStr"/>
+      <c r="E194" s="2" t="inlineStr"/>
+      <c r="F194" s="2" t="inlineStr"/>
+      <c r="G194" s="2" t="inlineStr"/>
+      <c r="H194" s="2" t="inlineStr"/>
+      <c r="I194" s="2" t="inlineStr"/>
+      <c r="J194" s="2" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="inlineStr"/>
+      <c r="B195" s="2" t="inlineStr"/>
+      <c r="C195" s="2" t="inlineStr"/>
+      <c r="D195" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="E195" s="2" t="inlineStr"/>
+      <c r="F195" s="2" t="inlineStr"/>
+      <c r="G195" s="2" t="inlineStr"/>
+      <c r="H195" s="2" t="inlineStr"/>
+      <c r="I195" s="2" t="inlineStr"/>
+      <c r="J195" s="2" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="inlineStr"/>
+      <c r="B196" s="2" t="inlineStr"/>
+      <c r="C196" s="2" t="inlineStr"/>
+      <c r="D196" s="2" t="inlineStr"/>
+      <c r="E196" s="2" t="inlineStr"/>
+      <c r="F196" s="2" t="inlineStr"/>
+      <c r="G196" s="2" t="inlineStr"/>
+      <c r="H196" s="2" t="inlineStr"/>
+      <c r="I196" s="2" t="inlineStr"/>
+      <c r="J196" s="2" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="inlineStr"/>
+      <c r="B197" s="2" t="inlineStr"/>
+      <c r="C197" s="2" t="inlineStr"/>
+      <c r="D197" s="2" t="inlineStr"/>
+      <c r="E197" s="2" t="inlineStr"/>
+      <c r="F197" s="2" t="inlineStr"/>
+      <c r="G197" s="2" t="inlineStr"/>
+      <c r="H197" s="2" t="inlineStr"/>
+      <c r="I197" s="2" t="inlineStr"/>
+      <c r="J197" s="2" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="inlineStr"/>
+      <c r="B198" s="2" t="inlineStr"/>
+      <c r="C198" s="2" t="inlineStr"/>
+      <c r="D198" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="E198" s="2" t="inlineStr"/>
+      <c r="F198" s="2" t="inlineStr"/>
+      <c r="G198" s="2" t="inlineStr"/>
+      <c r="H198" s="2" t="inlineStr"/>
+      <c r="I198" s="2" t="inlineStr"/>
+      <c r="J198" s="2" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="inlineStr"/>
+      <c r="B199" s="2" t="inlineStr"/>
+      <c r="C199" s="2" t="inlineStr"/>
+      <c r="D199" s="2" t="inlineStr"/>
+      <c r="E199" s="2" t="inlineStr"/>
+      <c r="F199" s="2" t="inlineStr"/>
+      <c r="G199" s="2" t="inlineStr"/>
+      <c r="H199" s="2" t="inlineStr"/>
+      <c r="I199" s="2" t="inlineStr"/>
+      <c r="J199" s="2" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="inlineStr"/>
+      <c r="B200" s="2" t="inlineStr"/>
+      <c r="C200" s="2" t="inlineStr"/>
+      <c r="D200" s="2" t="inlineStr"/>
+      <c r="E200" s="2" t="inlineStr"/>
+      <c r="F200" s="2" t="inlineStr"/>
+      <c r="G200" s="2" t="inlineStr"/>
+      <c r="H200" s="2" t="inlineStr"/>
+      <c r="I200" s="2" t="inlineStr"/>
+      <c r="J200" s="2" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="inlineStr"/>
+      <c r="B201" s="2" t="inlineStr"/>
+      <c r="C201" s="2" t="inlineStr"/>
+      <c r="D201" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="E201" s="2" t="inlineStr"/>
+      <c r="F201" s="2" t="inlineStr"/>
+      <c r="G201" s="2" t="inlineStr"/>
+      <c r="H201" s="2" t="inlineStr"/>
+      <c r="I201" s="2" t="inlineStr"/>
+      <c r="J201" s="2" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="inlineStr"/>
+      <c r="B202" s="2" t="inlineStr"/>
+      <c r="C202" s="2" t="inlineStr"/>
+      <c r="D202" s="2" t="inlineStr"/>
+      <c r="E202" s="2" t="inlineStr"/>
+      <c r="F202" s="2" t="inlineStr"/>
+      <c r="G202" s="2" t="inlineStr"/>
+      <c r="H202" s="2" t="inlineStr"/>
+      <c r="I202" s="2" t="inlineStr"/>
+      <c r="J202" s="2" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="inlineStr"/>
+      <c r="B203" s="2" t="inlineStr"/>
+      <c r="C203" s="2" t="inlineStr"/>
+      <c r="D203" s="2" t="inlineStr"/>
+      <c r="E203" s="2" t="inlineStr"/>
+      <c r="F203" s="2" t="inlineStr"/>
+      <c r="G203" s="2" t="inlineStr"/>
+      <c r="H203" s="2" t="inlineStr"/>
+      <c r="I203" s="2" t="inlineStr"/>
+      <c r="J203" s="2" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="inlineStr"/>
+      <c r="B204" s="2" t="inlineStr"/>
+      <c r="C204" s="2" t="inlineStr"/>
+      <c r="D204" s="2" t="inlineStr"/>
+      <c r="E204" s="2" t="inlineStr"/>
+      <c r="F204" s="2" t="inlineStr"/>
+      <c r="G204" s="2" t="inlineStr"/>
+      <c r="H204" s="2" t="inlineStr"/>
+      <c r="I204" s="2" t="inlineStr"/>
+      <c r="J204" s="2" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="inlineStr"/>
+      <c r="B205" s="2" t="inlineStr"/>
+      <c r="C205" s="2" t="inlineStr"/>
+      <c r="D205" s="2" t="inlineStr"/>
+      <c r="E205" s="2" t="inlineStr"/>
+      <c r="F205" s="2" t="inlineStr"/>
+      <c r="G205" s="2" t="inlineStr"/>
+      <c r="H205" s="2" t="inlineStr"/>
+      <c r="I205" s="2" t="inlineStr"/>
+      <c r="J205" s="2" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="inlineStr"/>
+      <c r="B206" s="2" t="inlineStr"/>
+      <c r="C206" s="2" t="inlineStr"/>
+      <c r="D206" s="2" t="inlineStr"/>
+      <c r="E206" s="2" t="inlineStr"/>
+      <c r="F206" s="2" t="inlineStr"/>
+      <c r="G206" s="2" t="inlineStr"/>
+      <c r="H206" s="2" t="inlineStr"/>
+      <c r="I206" s="2" t="inlineStr"/>
+      <c r="J206" s="2" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="inlineStr"/>
+      <c r="B207" s="2" t="inlineStr"/>
+      <c r="C207" s="2" t="inlineStr"/>
+      <c r="D207" s="2" t="inlineStr"/>
+      <c r="E207" s="2" t="inlineStr"/>
+      <c r="F207" s="2" t="inlineStr"/>
+      <c r="G207" s="2" t="inlineStr"/>
+      <c r="H207" s="2" t="inlineStr"/>
+      <c r="I207" s="2" t="inlineStr"/>
+      <c r="J207" s="2" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="inlineStr"/>
+      <c r="B208" s="2" t="inlineStr"/>
+      <c r="C208" s="2" t="inlineStr"/>
+      <c r="D208" s="2" t="inlineStr"/>
+      <c r="E208" s="2" t="inlineStr"/>
+      <c r="F208" s="2" t="inlineStr"/>
+      <c r="G208" s="2" t="inlineStr"/>
+      <c r="H208" s="2" t="inlineStr"/>
+      <c r="I208" s="2" t="inlineStr"/>
+      <c r="J208" s="2" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="inlineStr"/>
+      <c r="B209" s="2" t="inlineStr"/>
+      <c r="C209" s="2" t="inlineStr"/>
+      <c r="D209" s="2" t="inlineStr"/>
+      <c r="E209" s="2" t="inlineStr"/>
+      <c r="F209" s="2" t="inlineStr"/>
+      <c r="G209" s="2" t="inlineStr"/>
+      <c r="H209" s="2" t="inlineStr"/>
+      <c r="I209" s="2" t="inlineStr"/>
+      <c r="J209" s="2" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="inlineStr"/>
+      <c r="B210" s="2" t="inlineStr"/>
+      <c r="C210" s="2" t="inlineStr"/>
+      <c r="D210" s="2" t="inlineStr"/>
+      <c r="E210" s="2" t="inlineStr"/>
+      <c r="F210" s="2" t="inlineStr"/>
+      <c r="G210" s="2" t="inlineStr"/>
+      <c r="H210" s="2" t="inlineStr"/>
+      <c r="I210" s="2" t="inlineStr"/>
+      <c r="J210" s="2" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="inlineStr"/>
+      <c r="B211" s="2" t="inlineStr"/>
+      <c r="C211" s="2" t="inlineStr"/>
+      <c r="D211" s="2" t="inlineStr"/>
+      <c r="E211" s="2" t="inlineStr"/>
+      <c r="F211" s="2" t="inlineStr"/>
+      <c r="G211" s="2" t="inlineStr"/>
+      <c r="H211" s="2" t="inlineStr"/>
+      <c r="I211" s="2" t="inlineStr"/>
+      <c r="J211" s="2" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="inlineStr"/>
+      <c r="B212" s="2" t="inlineStr"/>
+      <c r="C212" s="2" t="inlineStr"/>
+      <c r="D212" s="2" t="inlineStr"/>
+      <c r="E212" s="2" t="inlineStr"/>
+      <c r="F212" s="2" t="inlineStr"/>
+      <c r="G212" s="2" t="inlineStr"/>
+      <c r="H212" s="2" t="inlineStr"/>
+      <c r="I212" s="2" t="inlineStr"/>
+      <c r="J212" s="2" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="inlineStr"/>
+      <c r="B213" s="2" t="inlineStr"/>
+      <c r="C213" s="2" t="inlineStr"/>
+      <c r="D213" s="2" t="inlineStr"/>
+      <c r="E213" s="2" t="inlineStr"/>
+      <c r="F213" s="2" t="inlineStr"/>
+      <c r="G213" s="2" t="inlineStr"/>
+      <c r="H213" s="2" t="inlineStr"/>
+      <c r="I213" s="2" t="inlineStr"/>
+      <c r="J213" s="2" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="inlineStr"/>
+      <c r="B214" s="2" t="inlineStr"/>
+      <c r="C214" s="2" t="inlineStr"/>
+      <c r="D214" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="E214" s="2" t="inlineStr"/>
+      <c r="F214" s="2" t="inlineStr"/>
+      <c r="G214" s="2" t="inlineStr"/>
+      <c r="H214" s="2" t="inlineStr"/>
+      <c r="I214" s="2" t="inlineStr"/>
+      <c r="J214" s="2" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="inlineStr"/>
+      <c r="B215" s="2" t="inlineStr"/>
+      <c r="C215" s="2" t="inlineStr"/>
+      <c r="D215" s="2" t="inlineStr"/>
+      <c r="E215" s="2" t="inlineStr"/>
+      <c r="F215" s="2" t="inlineStr"/>
+      <c r="G215" s="2" t="inlineStr"/>
+      <c r="H215" s="2" t="inlineStr"/>
+      <c r="I215" s="2" t="inlineStr"/>
+      <c r="J215" s="2" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="inlineStr"/>
+      <c r="B216" s="2" t="inlineStr"/>
+      <c r="C216" s="2" t="inlineStr"/>
+      <c r="D216" s="2" t="inlineStr"/>
+      <c r="E216" s="2" t="inlineStr"/>
+      <c r="F216" s="2" t="inlineStr"/>
+      <c r="G216" s="2" t="inlineStr"/>
+      <c r="H216" s="2" t="inlineStr"/>
+      <c r="I216" s="2" t="inlineStr"/>
+      <c r="J216" s="2" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="inlineStr"/>
+      <c r="B217" s="2" t="inlineStr"/>
+      <c r="C217" s="2" t="inlineStr"/>
+      <c r="D217" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="E217" s="2" t="inlineStr"/>
+      <c r="F217" s="2" t="inlineStr"/>
+      <c r="G217" s="2" t="inlineStr"/>
+      <c r="H217" s="2" t="inlineStr"/>
+      <c r="I217" s="2" t="inlineStr"/>
+      <c r="J217" s="2" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="inlineStr"/>
+      <c r="B218" s="2" t="inlineStr"/>
+      <c r="C218" s="2" t="inlineStr"/>
+      <c r="D218" s="2" t="inlineStr"/>
+      <c r="E218" s="2" t="inlineStr"/>
+      <c r="F218" s="2" t="inlineStr"/>
+      <c r="G218" s="2" t="inlineStr"/>
+      <c r="H218" s="2" t="inlineStr"/>
+      <c r="I218" s="2" t="inlineStr"/>
+      <c r="J218" s="2" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="inlineStr"/>
+      <c r="B219" s="2" t="inlineStr"/>
+      <c r="C219" s="2" t="inlineStr"/>
+      <c r="D219" s="2" t="inlineStr"/>
+      <c r="E219" s="2" t="inlineStr"/>
+      <c r="F219" s="2" t="inlineStr"/>
+      <c r="G219" s="2" t="inlineStr"/>
+      <c r="H219" s="2" t="inlineStr"/>
+      <c r="I219" s="2" t="inlineStr"/>
+      <c r="J219" s="2" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="inlineStr"/>
+      <c r="B220" s="2" t="inlineStr"/>
+      <c r="C220" s="2" t="inlineStr"/>
+      <c r="D220" s="2" t="inlineStr"/>
+      <c r="E220" s="2" t="inlineStr"/>
+      <c r="F220" s="2" t="inlineStr"/>
+      <c r="G220" s="2" t="inlineStr"/>
+      <c r="H220" s="2" t="inlineStr"/>
+      <c r="I220" s="2" t="inlineStr"/>
+      <c r="J220" s="2" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="inlineStr"/>
+      <c r="B221" s="2" t="inlineStr"/>
+      <c r="C221" s="2" t="inlineStr"/>
+      <c r="D221" s="2" t="inlineStr"/>
+      <c r="E221" s="2" t="inlineStr"/>
+      <c r="F221" s="2" t="inlineStr"/>
+      <c r="G221" s="2" t="inlineStr"/>
+      <c r="H221" s="2" t="inlineStr"/>
+      <c r="I221" s="2" t="inlineStr"/>
+      <c r="J221" s="2" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="inlineStr"/>
+      <c r="B222" s="2" t="inlineStr"/>
+      <c r="C222" s="2" t="inlineStr"/>
+      <c r="D222" s="2" t="inlineStr"/>
+      <c r="E222" s="2" t="inlineStr"/>
+      <c r="F222" s="2" t="inlineStr"/>
+      <c r="G222" s="2" t="inlineStr"/>
+      <c r="H222" s="2" t="inlineStr"/>
+      <c r="I222" s="2" t="inlineStr"/>
+      <c r="J222" s="2" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="inlineStr"/>
+      <c r="B223" s="2" t="inlineStr"/>
+      <c r="C223" s="2" t="inlineStr"/>
+      <c r="D223" s="2" t="inlineStr"/>
+      <c r="E223" s="2" t="inlineStr"/>
+      <c r="F223" s="2" t="inlineStr"/>
+      <c r="G223" s="2" t="inlineStr"/>
+      <c r="H223" s="2" t="inlineStr"/>
+      <c r="I223" s="2" t="inlineStr"/>
+      <c r="J223" s="2" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="inlineStr"/>
+      <c r="B224" s="2" t="inlineStr"/>
+      <c r="C224" s="2" t="inlineStr"/>
+      <c r="D224" s="2" t="inlineStr"/>
+      <c r="E224" s="2" t="inlineStr"/>
+      <c r="F224" s="2" t="inlineStr"/>
+      <c r="G224" s="2" t="inlineStr"/>
+      <c r="H224" s="2" t="inlineStr"/>
+      <c r="I224" s="2" t="inlineStr"/>
+      <c r="J224" s="2" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="inlineStr"/>
+      <c r="B225" s="2" t="inlineStr"/>
+      <c r="C225" s="2" t="inlineStr"/>
+      <c r="D225" s="2" t="inlineStr"/>
+      <c r="E225" s="2" t="inlineStr"/>
+      <c r="F225" s="2" t="inlineStr"/>
+      <c r="G225" s="2" t="inlineStr"/>
+      <c r="H225" s="2" t="inlineStr"/>
+      <c r="I225" s="2" t="inlineStr"/>
+      <c r="J225" s="2" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="inlineStr"/>
+      <c r="B226" s="2" t="inlineStr"/>
+      <c r="C226" s="2" t="inlineStr"/>
+      <c r="D226" s="2" t="inlineStr"/>
+      <c r="E226" s="2" t="inlineStr"/>
+      <c r="F226" s="2" t="inlineStr"/>
+      <c r="G226" s="2" t="inlineStr"/>
+      <c r="H226" s="2" t="inlineStr"/>
+      <c r="I226" s="2" t="inlineStr"/>
+      <c r="J226" s="2" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="inlineStr"/>
+      <c r="B227" s="2" t="inlineStr"/>
+      <c r="C227" s="2" t="inlineStr"/>
+      <c r="D227" s="2" t="inlineStr"/>
+      <c r="E227" s="2" t="inlineStr"/>
+      <c r="F227" s="2" t="inlineStr"/>
+      <c r="G227" s="2" t="inlineStr"/>
+      <c r="H227" s="2" t="inlineStr"/>
+      <c r="I227" s="2" t="inlineStr"/>
+      <c r="J227" s="2" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="inlineStr"/>
+      <c r="B228" s="2" t="inlineStr"/>
+      <c r="C228" s="2" t="inlineStr"/>
+      <c r="D228" s="2" t="inlineStr"/>
+      <c r="E228" s="2" t="inlineStr"/>
+      <c r="F228" s="2" t="inlineStr"/>
+      <c r="G228" s="2" t="inlineStr"/>
+      <c r="H228" s="2" t="inlineStr"/>
+      <c r="I228" s="2" t="inlineStr"/>
+      <c r="J228" s="2" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="inlineStr"/>
+      <c r="B229" s="2" t="inlineStr"/>
+      <c r="C229" s="2" t="inlineStr"/>
+      <c r="D229" s="2" t="inlineStr"/>
+      <c r="E229" s="2" t="inlineStr"/>
+      <c r="F229" s="2" t="inlineStr"/>
+      <c r="G229" s="2" t="inlineStr"/>
+      <c r="H229" s="2" t="inlineStr"/>
+      <c r="I229" s="2" t="inlineStr"/>
+      <c r="J229" s="2" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="inlineStr"/>
+      <c r="B230" s="2" t="inlineStr"/>
+      <c r="C230" s="2" t="inlineStr"/>
+      <c r="D230" s="2" t="inlineStr"/>
+      <c r="E230" s="2" t="inlineStr"/>
+      <c r="F230" s="2" t="inlineStr"/>
+      <c r="G230" s="2" t="inlineStr"/>
+      <c r="H230" s="2" t="inlineStr"/>
+      <c r="I230" s="2" t="inlineStr"/>
+      <c r="J230" s="2" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="inlineStr"/>
+      <c r="B231" s="2" t="inlineStr"/>
+      <c r="C231" s="2" t="inlineStr"/>
+      <c r="D231" s="2" t="inlineStr"/>
+      <c r="E231" s="2" t="inlineStr"/>
+      <c r="F231" s="2" t="inlineStr"/>
+      <c r="G231" s="2" t="inlineStr"/>
+      <c r="H231" s="2" t="inlineStr"/>
+      <c r="I231" s="2" t="inlineStr"/>
+      <c r="J231" s="2" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="inlineStr"/>
+      <c r="B232" s="2" t="inlineStr"/>
+      <c r="C232" s="2" t="inlineStr"/>
+      <c r="D232" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="E232" s="2" t="inlineStr"/>
+      <c r="F232" s="2" t="inlineStr"/>
+      <c r="G232" s="2" t="inlineStr"/>
+      <c r="H232" s="2" t="inlineStr"/>
+      <c r="I232" s="2" t="inlineStr"/>
+      <c r="J232" s="2" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="inlineStr"/>
+      <c r="B233" s="2" t="inlineStr"/>
+      <c r="C233" s="2" t="inlineStr"/>
+      <c r="D233" s="2" t="inlineStr"/>
+      <c r="E233" s="2" t="inlineStr"/>
+      <c r="F233" s="2" t="inlineStr"/>
+      <c r="G233" s="2" t="inlineStr"/>
+      <c r="H233" s="2" t="inlineStr"/>
+      <c r="I233" s="2" t="inlineStr"/>
+      <c r="J233" s="2" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="inlineStr"/>
+      <c r="B234" s="2" t="inlineStr"/>
+      <c r="C234" s="2" t="inlineStr"/>
+      <c r="D234" s="2" t="inlineStr"/>
+      <c r="E234" s="2" t="inlineStr"/>
+      <c r="F234" s="2" t="inlineStr"/>
+      <c r="G234" s="2" t="inlineStr"/>
+      <c r="H234" s="2" t="inlineStr"/>
+      <c r="I234" s="2" t="inlineStr"/>
+      <c r="J234" s="2" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="inlineStr"/>
+      <c r="B235" s="2" t="inlineStr"/>
+      <c r="C235" s="2" t="inlineStr"/>
+      <c r="D235" s="2" t="inlineStr"/>
+      <c r="E235" s="2" t="inlineStr"/>
+      <c r="F235" s="2" t="inlineStr"/>
+      <c r="G235" s="2" t="inlineStr"/>
+      <c r="H235" s="2" t="inlineStr"/>
+      <c r="I235" s="2" t="inlineStr"/>
+      <c r="J235" s="2" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="inlineStr"/>
+      <c r="B236" s="2" t="inlineStr"/>
+      <c r="C236" s="2" t="inlineStr"/>
+      <c r="D236" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="E236" s="2" t="inlineStr"/>
+      <c r="F236" s="2" t="inlineStr"/>
+      <c r="G236" s="2" t="inlineStr"/>
+      <c r="H236" s="2" t="inlineStr"/>
+      <c r="I236" s="2" t="inlineStr"/>
+      <c r="J236" s="2" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="inlineStr"/>
+      <c r="B237" s="2" t="inlineStr"/>
+      <c r="C237" s="2" t="inlineStr"/>
+      <c r="D237" s="2" t="inlineStr"/>
+      <c r="E237" s="2" t="inlineStr"/>
+      <c r="F237" s="2" t="inlineStr"/>
+      <c r="G237" s="2" t="inlineStr"/>
+      <c r="H237" s="2" t="inlineStr"/>
+      <c r="I237" s="2" t="inlineStr"/>
+      <c r="J237" s="2" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="inlineStr"/>
+      <c r="B238" s="2" t="inlineStr"/>
+      <c r="C238" s="2" t="inlineStr"/>
+      <c r="D238" s="2" t="inlineStr"/>
+      <c r="E238" s="2" t="inlineStr"/>
+      <c r="F238" s="2" t="inlineStr"/>
+      <c r="G238" s="2" t="inlineStr"/>
+      <c r="H238" s="2" t="inlineStr"/>
+      <c r="I238" s="2" t="inlineStr"/>
+      <c r="J238" s="2" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="inlineStr"/>
+      <c r="B239" s="2" t="inlineStr"/>
+      <c r="C239" s="2" t="inlineStr"/>
+      <c r="D239" s="2" t="inlineStr"/>
+      <c r="E239" s="2" t="inlineStr"/>
+      <c r="F239" s="2" t="inlineStr"/>
+      <c r="G239" s="2" t="inlineStr"/>
+      <c r="H239" s="2" t="inlineStr"/>
+      <c r="I239" s="2" t="inlineStr"/>
+      <c r="J239" s="2" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="inlineStr"/>
+      <c r="B240" s="2" t="inlineStr"/>
+      <c r="C240" s="2" t="inlineStr"/>
+      <c r="D240" s="2" t="inlineStr"/>
+      <c r="E240" s="2" t="inlineStr"/>
+      <c r="F240" s="2" t="inlineStr"/>
+      <c r="G240" s="2" t="inlineStr"/>
+      <c r="H240" s="2" t="inlineStr"/>
+      <c r="I240" s="2" t="inlineStr"/>
+      <c r="J240" s="2" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="inlineStr"/>
+      <c r="B241" s="2" t="inlineStr"/>
+      <c r="C241" s="2" t="inlineStr"/>
+      <c r="D241" s="2" t="inlineStr"/>
+      <c r="E241" s="2" t="inlineStr"/>
+      <c r="F241" s="2" t="inlineStr"/>
+      <c r="G241" s="2" t="inlineStr"/>
+      <c r="H241" s="2" t="inlineStr"/>
+      <c r="I241" s="2" t="inlineStr"/>
+      <c r="J241" s="2" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="inlineStr"/>
+      <c r="B242" s="2" t="inlineStr"/>
+      <c r="C242" s="2" t="inlineStr"/>
+      <c r="D242" s="2" t="inlineStr"/>
+      <c r="E242" s="2" t="inlineStr"/>
+      <c r="F242" s="2" t="inlineStr"/>
+      <c r="G242" s="2" t="inlineStr"/>
+      <c r="H242" s="2" t="inlineStr"/>
+      <c r="I242" s="2" t="inlineStr"/>
+      <c r="J242" s="2" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="inlineStr"/>
+      <c r="B243" s="2" t="inlineStr"/>
+      <c r="C243" s="2" t="inlineStr"/>
+      <c r="D243" s="2" t="inlineStr"/>
+      <c r="E243" s="2" t="inlineStr"/>
+      <c r="F243" s="2" t="inlineStr"/>
+      <c r="G243" s="2" t="inlineStr"/>
+      <c r="H243" s="2" t="inlineStr"/>
+      <c r="I243" s="2" t="inlineStr"/>
+      <c r="J243" s="2" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="inlineStr"/>
+      <c r="B244" s="2" t="inlineStr"/>
+      <c r="C244" s="2" t="inlineStr"/>
+      <c r="D244" s="2" t="inlineStr"/>
+      <c r="E244" s="2" t="inlineStr"/>
+      <c r="F244" s="2" t="inlineStr"/>
+      <c r="G244" s="2" t="inlineStr"/>
+      <c r="H244" s="2" t="inlineStr"/>
+      <c r="I244" s="2" t="inlineStr"/>
+      <c r="J244" s="2" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="inlineStr"/>
+      <c r="B245" s="2" t="inlineStr"/>
+      <c r="C245" s="2" t="inlineStr"/>
+      <c r="D245" s="2" t="inlineStr"/>
+      <c r="E245" s="2" t="inlineStr"/>
+      <c r="F245" s="2" t="inlineStr"/>
+      <c r="G245" s="2" t="inlineStr"/>
+      <c r="H245" s="2" t="inlineStr"/>
+      <c r="I245" s="2" t="inlineStr"/>
+      <c r="J245" s="2" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="inlineStr"/>
+      <c r="B246" s="2" t="inlineStr"/>
+      <c r="C246" s="2" t="inlineStr"/>
+      <c r="D246" s="2" t="inlineStr"/>
+      <c r="E246" s="2" t="inlineStr"/>
+      <c r="F246" s="2" t="inlineStr"/>
+      <c r="G246" s="2" t="inlineStr"/>
+      <c r="H246" s="2" t="inlineStr"/>
+      <c r="I246" s="2" t="inlineStr"/>
+      <c r="J246" s="2" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="inlineStr"/>
+      <c r="B247" s="2" t="inlineStr"/>
+      <c r="C247" s="2" t="inlineStr"/>
+      <c r="D247" s="2" t="inlineStr"/>
+      <c r="E247" s="2" t="inlineStr"/>
+      <c r="F247" s="2" t="inlineStr"/>
+      <c r="G247" s="2" t="inlineStr"/>
+      <c r="H247" s="2" t="inlineStr"/>
+      <c r="I247" s="2" t="inlineStr"/>
+      <c r="J247" s="2" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="inlineStr"/>
+      <c r="B248" s="2" t="inlineStr"/>
+      <c r="C248" s="2" t="inlineStr"/>
+      <c r="D248" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="E248" s="2" t="inlineStr"/>
+      <c r="F248" s="2" t="inlineStr"/>
+      <c r="G248" s="2" t="inlineStr"/>
+      <c r="H248" s="2" t="inlineStr"/>
+      <c r="I248" s="2" t="inlineStr"/>
+      <c r="J248" s="2" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="inlineStr"/>
+      <c r="B249" s="2" t="inlineStr"/>
+      <c r="C249" s="2" t="inlineStr"/>
+      <c r="D249" s="2" t="inlineStr"/>
+      <c r="E249" s="2" t="inlineStr"/>
+      <c r="F249" s="2" t="inlineStr"/>
+      <c r="G249" s="2" t="inlineStr"/>
+      <c r="H249" s="2" t="inlineStr"/>
+      <c r="I249" s="2" t="inlineStr"/>
+      <c r="J249" s="2" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="inlineStr"/>
+      <c r="B250" s="2" t="inlineStr"/>
+      <c r="C250" s="2" t="inlineStr"/>
+      <c r="D250" s="2" t="inlineStr"/>
+      <c r="E250" s="2" t="inlineStr"/>
+      <c r="F250" s="2" t="inlineStr"/>
+      <c r="G250" s="2" t="inlineStr"/>
+      <c r="H250" s="2" t="inlineStr"/>
+      <c r="I250" s="2" t="inlineStr"/>
+      <c r="J250" s="2" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="inlineStr"/>
+      <c r="B251" s="2" t="inlineStr"/>
+      <c r="C251" s="2" t="inlineStr"/>
+      <c r="D251" s="2" t="inlineStr"/>
+      <c r="E251" s="2" t="inlineStr"/>
+      <c r="F251" s="2" t="inlineStr"/>
+      <c r="G251" s="2" t="inlineStr"/>
+      <c r="H251" s="2" t="inlineStr"/>
+      <c r="I251" s="2" t="inlineStr"/>
+      <c r="J251" s="2" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="inlineStr"/>
+      <c r="B252" s="2" t="inlineStr"/>
+      <c r="C252" s="2" t="inlineStr"/>
+      <c r="D252" s="2" t="inlineStr"/>
+      <c r="E252" s="2" t="inlineStr"/>
+      <c r="F252" s="2" t="inlineStr"/>
+      <c r="G252" s="2" t="inlineStr"/>
+      <c r="H252" s="2" t="inlineStr"/>
+      <c r="I252" s="2" t="inlineStr"/>
+      <c r="J252" s="2" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="2" t="inlineStr"/>
+      <c r="B253" s="2" t="inlineStr"/>
+      <c r="C253" s="2" t="inlineStr"/>
+      <c r="D253" s="2" t="inlineStr"/>
+      <c r="E253" s="2" t="inlineStr"/>
+      <c r="F253" s="2" t="inlineStr"/>
+      <c r="G253" s="2" t="inlineStr"/>
+      <c r="H253" s="2" t="inlineStr"/>
+      <c r="I253" s="2" t="inlineStr"/>
+      <c r="J253" s="2" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="inlineStr"/>
+      <c r="B254" s="2" t="inlineStr"/>
+      <c r="C254" s="2" t="inlineStr"/>
+      <c r="D254" s="2" t="inlineStr"/>
+      <c r="E254" s="2" t="inlineStr"/>
+      <c r="F254" s="2" t="inlineStr"/>
+      <c r="G254" s="2" t="inlineStr"/>
+      <c r="H254" s="2" t="inlineStr"/>
+      <c r="I254" s="2" t="inlineStr"/>
+      <c r="J254" s="2" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="2" t="inlineStr"/>
+      <c r="B255" s="2" t="inlineStr"/>
+      <c r="C255" s="2" t="inlineStr"/>
+      <c r="D255" s="2" t="inlineStr"/>
+      <c r="E255" s="2" t="inlineStr"/>
+      <c r="F255" s="2" t="inlineStr"/>
+      <c r="G255" s="2" t="inlineStr"/>
+      <c r="H255" s="2" t="inlineStr"/>
+      <c r="I255" s="2" t="inlineStr"/>
+      <c r="J255" s="2" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="inlineStr"/>
+      <c r="B256" s="2" t="inlineStr"/>
+      <c r="C256" s="2" t="inlineStr"/>
+      <c r="D256" s="2" t="inlineStr"/>
+      <c r="E256" s="2" t="inlineStr"/>
+      <c r="F256" s="2" t="inlineStr"/>
+      <c r="G256" s="2" t="inlineStr"/>
+      <c r="H256" s="2" t="inlineStr"/>
+      <c r="I256" s="2" t="inlineStr"/>
+      <c r="J256" s="2" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="inlineStr"/>
+      <c r="B257" s="2" t="inlineStr"/>
+      <c r="C257" s="2" t="inlineStr"/>
+      <c r="D257" s="2" t="inlineStr"/>
+      <c r="E257" s="2" t="inlineStr"/>
+      <c r="F257" s="2" t="inlineStr"/>
+      <c r="G257" s="2" t="inlineStr"/>
+      <c r="H257" s="2" t="inlineStr"/>
+      <c r="I257" s="2" t="inlineStr"/>
+      <c r="J257" s="2" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="inlineStr"/>
+      <c r="B258" s="2" t="inlineStr"/>
+      <c r="C258" s="2" t="inlineStr"/>
+      <c r="D258" s="2" t="inlineStr"/>
+      <c r="E258" s="2" t="inlineStr"/>
+      <c r="F258" s="2" t="inlineStr"/>
+      <c r="G258" s="2" t="inlineStr"/>
+      <c r="H258" s="2" t="inlineStr"/>
+      <c r="I258" s="2" t="inlineStr"/>
+      <c r="J258" s="2" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="inlineStr"/>
+      <c r="B259" s="2" t="inlineStr"/>
+      <c r="C259" s="2" t="inlineStr"/>
+      <c r="D259" s="2" t="inlineStr"/>
+      <c r="E259" s="2" t="inlineStr"/>
+      <c r="F259" s="2" t="inlineStr"/>
+      <c r="G259" s="2" t="inlineStr"/>
+      <c r="H259" s="2" t="inlineStr"/>
+      <c r="I259" s="2" t="inlineStr"/>
+      <c r="J259" s="2" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="inlineStr"/>
+      <c r="B260" s="2" t="inlineStr"/>
+      <c r="C260" s="2" t="inlineStr"/>
+      <c r="D260" s="2" t="inlineStr"/>
+      <c r="E260" s="2" t="inlineStr"/>
+      <c r="F260" s="2" t="inlineStr"/>
+      <c r="G260" s="2" t="inlineStr"/>
+      <c r="H260" s="2" t="inlineStr"/>
+      <c r="I260" s="2" t="inlineStr"/>
+      <c r="J260" s="2" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="2" t="inlineStr"/>
+      <c r="B261" s="2" t="inlineStr"/>
+      <c r="C261" s="2" t="inlineStr"/>
+      <c r="D261" s="2" t="inlineStr"/>
+      <c r="E261" s="2" t="inlineStr"/>
+      <c r="F261" s="2" t="inlineStr"/>
+      <c r="G261" s="2" t="inlineStr"/>
+      <c r="H261" s="2" t="inlineStr"/>
+      <c r="I261" s="2" t="inlineStr"/>
+      <c r="J261" s="2" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="inlineStr"/>
+      <c r="B262" s="2" t="inlineStr"/>
+      <c r="C262" s="2" t="inlineStr"/>
+      <c r="D262" s="2" t="inlineStr"/>
+      <c r="E262" s="2" t="inlineStr"/>
+      <c r="F262" s="2" t="inlineStr"/>
+      <c r="G262" s="2" t="inlineStr"/>
+      <c r="H262" s="2" t="inlineStr"/>
+      <c r="I262" s="2" t="inlineStr"/>
+      <c r="J262" s="2" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="2" t="inlineStr"/>
+      <c r="B263" s="2" t="inlineStr"/>
+      <c r="C263" s="2" t="inlineStr"/>
+      <c r="D263" s="2" t="inlineStr"/>
+      <c r="E263" s="2" t="inlineStr"/>
+      <c r="F263" s="2" t="inlineStr"/>
+      <c r="G263" s="2" t="inlineStr"/>
+      <c r="H263" s="2" t="inlineStr"/>
+      <c r="I263" s="2" t="inlineStr"/>
+      <c r="J263" s="2" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="inlineStr"/>
+      <c r="B264" s="2" t="inlineStr"/>
+      <c r="C264" s="2" t="inlineStr"/>
+      <c r="D264" s="2" t="inlineStr"/>
+      <c r="E264" s="2" t="inlineStr"/>
+      <c r="F264" s="2" t="inlineStr"/>
+      <c r="G264" s="2" t="inlineStr"/>
+      <c r="H264" s="2" t="inlineStr"/>
+      <c r="I264" s="2" t="inlineStr"/>
+      <c r="J264" s="2" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="inlineStr"/>
+      <c r="B265" s="2" t="inlineStr"/>
+      <c r="C265" s="2" t="inlineStr"/>
+      <c r="D265" s="2" t="inlineStr"/>
+      <c r="E265" s="2" t="inlineStr"/>
+      <c r="F265" s="2" t="inlineStr"/>
+      <c r="G265" s="2" t="inlineStr"/>
+      <c r="H265" s="2" t="inlineStr"/>
+      <c r="I265" s="2" t="inlineStr"/>
+      <c r="J265" s="2" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="inlineStr"/>
+      <c r="B266" s="2" t="inlineStr"/>
+      <c r="C266" s="2" t="inlineStr"/>
+      <c r="D266" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="E266" s="2" t="inlineStr"/>
+      <c r="F266" s="2" t="inlineStr"/>
+      <c r="G266" s="2" t="inlineStr"/>
+      <c r="H266" s="2" t="inlineStr"/>
+      <c r="I266" s="2" t="inlineStr"/>
+      <c r="J266" s="2" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="inlineStr"/>
+      <c r="B267" s="2" t="inlineStr"/>
+      <c r="C267" s="2" t="inlineStr"/>
+      <c r="D267" s="2" t="inlineStr"/>
+      <c r="E267" s="2" t="inlineStr"/>
+      <c r="F267" s="2" t="inlineStr"/>
+      <c r="G267" s="2" t="inlineStr"/>
+      <c r="H267" s="2" t="inlineStr"/>
+      <c r="I267" s="2" t="inlineStr"/>
+      <c r="J267" s="2" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="inlineStr"/>
+      <c r="B268" s="2" t="inlineStr"/>
+      <c r="C268" s="2" t="inlineStr"/>
+      <c r="D268" s="2" t="inlineStr"/>
+      <c r="E268" s="2" t="inlineStr"/>
+      <c r="F268" s="2" t="inlineStr"/>
+      <c r="G268" s="2" t="inlineStr"/>
+      <c r="H268" s="2" t="inlineStr"/>
+      <c r="I268" s="2" t="inlineStr"/>
+      <c r="J268" s="2" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="inlineStr"/>
+      <c r="B269" s="2" t="inlineStr"/>
+      <c r="C269" s="2" t="inlineStr"/>
+      <c r="D269" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="E269" s="2" t="inlineStr"/>
+      <c r="F269" s="2" t="inlineStr"/>
+      <c r="G269" s="2" t="inlineStr"/>
+      <c r="H269" s="2" t="inlineStr"/>
+      <c r="I269" s="2" t="inlineStr"/>
+      <c r="J269" s="2" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="inlineStr"/>
+      <c r="B270" s="2" t="inlineStr"/>
+      <c r="C270" s="2" t="inlineStr"/>
+      <c r="D270" s="2" t="inlineStr"/>
+      <c r="E270" s="2" t="inlineStr"/>
+      <c r="F270" s="2" t="inlineStr"/>
+      <c r="G270" s="2" t="inlineStr"/>
+      <c r="H270" s="2" t="inlineStr"/>
+      <c r="I270" s="2" t="inlineStr"/>
+      <c r="J270" s="2" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="2" t="inlineStr"/>
+      <c r="B271" s="2" t="inlineStr"/>
+      <c r="C271" s="2" t="inlineStr"/>
+      <c r="D271" s="2" t="inlineStr"/>
+      <c r="E271" s="2" t="inlineStr"/>
+      <c r="F271" s="2" t="inlineStr"/>
+      <c r="G271" s="2" t="inlineStr"/>
+      <c r="H271" s="2" t="inlineStr"/>
+      <c r="I271" s="2" t="inlineStr"/>
+      <c r="J271" s="2" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="2" t="inlineStr"/>
+      <c r="B272" s="2" t="inlineStr"/>
+      <c r="C272" s="2" t="inlineStr"/>
+      <c r="D272" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="E272" s="2" t="inlineStr"/>
+      <c r="F272" s="2" t="inlineStr"/>
+      <c r="G272" s="2" t="inlineStr"/>
+      <c r="H272" s="2" t="inlineStr"/>
+      <c r="I272" s="2" t="inlineStr"/>
+      <c r="J272" s="2" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="2" t="inlineStr"/>
+      <c r="B273" s="2" t="inlineStr"/>
+      <c r="C273" s="2" t="inlineStr"/>
+      <c r="D273" s="2" t="inlineStr"/>
+      <c r="E273" s="2" t="inlineStr"/>
+      <c r="F273" s="2" t="inlineStr"/>
+      <c r="G273" s="2" t="inlineStr"/>
+      <c r="H273" s="2" t="inlineStr"/>
+      <c r="I273" s="2" t="inlineStr"/>
+      <c r="J273" s="2" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="2" t="inlineStr"/>
+      <c r="B274" s="2" t="inlineStr"/>
+      <c r="C274" s="2" t="inlineStr"/>
+      <c r="D274" s="2" t="inlineStr"/>
+      <c r="E274" s="2" t="inlineStr"/>
+      <c r="F274" s="2" t="inlineStr"/>
+      <c r="G274" s="2" t="inlineStr"/>
+      <c r="H274" s="2" t="inlineStr"/>
+      <c r="I274" s="2" t="inlineStr"/>
+      <c r="J274" s="2" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="2" t="inlineStr"/>
+      <c r="B275" s="2" t="inlineStr"/>
+      <c r="C275" s="2" t="inlineStr"/>
+      <c r="D275" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="E275" s="2" t="inlineStr"/>
+      <c r="F275" s="2" t="inlineStr"/>
+      <c r="G275" s="2" t="inlineStr"/>
+      <c r="H275" s="2" t="inlineStr"/>
+      <c r="I275" s="2" t="inlineStr"/>
+      <c r="J275" s="2" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="2" t="inlineStr"/>
+      <c r="B276" s="2" t="inlineStr"/>
+      <c r="C276" s="2" t="inlineStr"/>
+      <c r="D276" s="2" t="inlineStr"/>
+      <c r="E276" s="2" t="inlineStr"/>
+      <c r="F276" s="2" t="inlineStr"/>
+      <c r="G276" s="2" t="inlineStr"/>
+      <c r="H276" s="2" t="inlineStr"/>
+      <c r="I276" s="2" t="inlineStr"/>
+      <c r="J276" s="2" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="2" t="inlineStr"/>
+      <c r="B277" s="2" t="inlineStr"/>
+      <c r="C277" s="2" t="inlineStr"/>
+      <c r="D277" s="2" t="inlineStr"/>
+      <c r="E277" s="2" t="inlineStr"/>
+      <c r="F277" s="2" t="inlineStr"/>
+      <c r="G277" s="2" t="inlineStr"/>
+      <c r="H277" s="2" t="inlineStr"/>
+      <c r="I277" s="2" t="inlineStr"/>
+      <c r="J277" s="2" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="2" t="inlineStr"/>
+      <c r="B278" s="2" t="inlineStr"/>
+      <c r="C278" s="2" t="inlineStr"/>
+      <c r="D278" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="E278" s="2" t="inlineStr"/>
+      <c r="F278" s="2" t="inlineStr"/>
+      <c r="G278" s="2" t="inlineStr"/>
+      <c r="H278" s="2" t="inlineStr"/>
+      <c r="I278" s="2" t="inlineStr"/>
+      <c r="J278" s="2" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="2" t="inlineStr"/>
+      <c r="B279" s="2" t="inlineStr"/>
+      <c r="C279" s="2" t="inlineStr"/>
+      <c r="D279" s="2" t="inlineStr"/>
+      <c r="E279" s="2" t="inlineStr"/>
+      <c r="F279" s="2" t="inlineStr"/>
+      <c r="G279" s="2" t="inlineStr"/>
+      <c r="H279" s="2" t="inlineStr"/>
+      <c r="I279" s="2" t="inlineStr"/>
+      <c r="J279" s="2" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="2" t="inlineStr"/>
+      <c r="B280" s="2" t="inlineStr"/>
+      <c r="C280" s="2" t="inlineStr"/>
+      <c r="D280" s="2" t="inlineStr"/>
+      <c r="E280" s="2" t="inlineStr"/>
+      <c r="F280" s="2" t="inlineStr"/>
+      <c r="G280" s="2" t="inlineStr"/>
+      <c r="H280" s="2" t="inlineStr"/>
+      <c r="I280" s="2" t="inlineStr"/>
+      <c r="J280" s="2" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="2" t="inlineStr"/>
+      <c r="B281" s="2" t="inlineStr"/>
+      <c r="C281" s="2" t="inlineStr"/>
+      <c r="D281" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="E281" s="2" t="inlineStr"/>
+      <c r="F281" s="2" t="inlineStr"/>
+      <c r="G281" s="2" t="inlineStr"/>
+      <c r="H281" s="2" t="inlineStr"/>
+      <c r="I281" s="2" t="inlineStr"/>
+      <c r="J281" s="2" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="2" t="inlineStr"/>
+      <c r="B282" s="2" t="inlineStr"/>
+      <c r="C282" s="2" t="inlineStr"/>
+      <c r="D282" s="2" t="inlineStr"/>
+      <c r="E282" s="2" t="inlineStr"/>
+      <c r="F282" s="2" t="inlineStr"/>
+      <c r="G282" s="2" t="inlineStr"/>
+      <c r="H282" s="2" t="inlineStr"/>
+      <c r="I282" s="2" t="inlineStr"/>
+      <c r="J282" s="2" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" s="2" t="inlineStr"/>
+      <c r="B283" s="2" t="inlineStr"/>
+      <c r="C283" s="2" t="inlineStr"/>
+      <c r="D283" s="2" t="inlineStr"/>
+      <c r="E283" s="2" t="inlineStr"/>
+      <c r="F283" s="2" t="inlineStr"/>
+      <c r="G283" s="2" t="inlineStr"/>
+      <c r="H283" s="2" t="inlineStr"/>
+      <c r="I283" s="2" t="inlineStr"/>
+      <c r="J283" s="2" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="2" t="inlineStr"/>
+      <c r="B284" s="2" t="inlineStr"/>
+      <c r="C284" s="2" t="inlineStr"/>
+      <c r="D284" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="E284" s="2" t="inlineStr"/>
+      <c r="F284" s="2" t="inlineStr"/>
+      <c r="G284" s="2" t="inlineStr"/>
+      <c r="H284" s="2" t="inlineStr"/>
+      <c r="I284" s="2" t="inlineStr"/>
+      <c r="J284" s="2" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" s="2" t="inlineStr"/>
+      <c r="B285" s="2" t="inlineStr"/>
+      <c r="C285" s="2" t="inlineStr"/>
+      <c r="D285" s="2" t="inlineStr"/>
+      <c r="E285" s="2" t="inlineStr"/>
+      <c r="F285" s="2" t="inlineStr"/>
+      <c r="G285" s="2" t="inlineStr"/>
+      <c r="H285" s="2" t="inlineStr"/>
+      <c r="I285" s="2" t="inlineStr"/>
+      <c r="J285" s="2" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" s="2" t="inlineStr"/>
+      <c r="B286" s="2" t="inlineStr"/>
+      <c r="C286" s="2" t="inlineStr"/>
+      <c r="D286" s="2" t="inlineStr"/>
+      <c r="E286" s="2" t="inlineStr"/>
+      <c r="F286" s="2" t="inlineStr"/>
+      <c r="G286" s="2" t="inlineStr"/>
+      <c r="H286" s="2" t="inlineStr"/>
+      <c r="I286" s="2" t="inlineStr"/>
+      <c r="J286" s="2" t="inlineStr"/>
+    </row>
+    <row r="287">
+      <c r="A287" s="2" t="inlineStr"/>
+      <c r="B287" s="2" t="inlineStr"/>
+      <c r="C287" s="2" t="inlineStr"/>
+      <c r="D287" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="E287" s="2" t="inlineStr"/>
+      <c r="F287" s="2" t="inlineStr"/>
+      <c r="G287" s="2" t="inlineStr"/>
+      <c r="H287" s="2" t="inlineStr"/>
+      <c r="I287" s="2" t="inlineStr"/>
+      <c r="J287" s="2" t="inlineStr"/>
+    </row>
+    <row r="288">
+      <c r="A288" s="2" t="inlineStr"/>
+      <c r="B288" s="2" t="inlineStr"/>
+      <c r="C288" s="2" t="inlineStr"/>
+      <c r="D288" s="2" t="inlineStr"/>
+      <c r="E288" s="2" t="inlineStr"/>
+      <c r="F288" s="2" t="inlineStr"/>
+      <c r="G288" s="2" t="inlineStr"/>
+      <c r="H288" s="2" t="inlineStr"/>
+      <c r="I288" s="2" t="inlineStr"/>
+      <c r="J288" s="2" t="inlineStr"/>
+    </row>
+    <row r="289">
+      <c r="A289" s="2" t="inlineStr"/>
+      <c r="B289" s="2" t="inlineStr"/>
+      <c r="C289" s="2" t="inlineStr"/>
+      <c r="D289" s="2" t="inlineStr"/>
+      <c r="E289" s="2" t="inlineStr"/>
+      <c r="F289" s="2" t="inlineStr"/>
+      <c r="G289" s="2" t="inlineStr"/>
+      <c r="H289" s="2" t="inlineStr"/>
+      <c r="I289" s="2" t="inlineStr"/>
+      <c r="J289" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
